--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -195,12 +195,6 @@
     <t>PCL</t>
   </si>
   <si>
-    <t>Registration for two point clouds</t>
-  </si>
-  <si>
-    <t>Axis calculation, centroid, ... (PCA)</t>
-  </si>
-  <si>
     <t>Segmentation of point clouds</t>
   </si>
   <si>
@@ -256,19 +250,69 @@
   </si>
   <si>
     <t>Visualize class architecture: UML diagram</t>
+  </si>
+  <si>
+    <t>AR Project</t>
+  </si>
+  <si>
+    <t>Test positioning</t>
+  </si>
+  <si>
+    <t>Create PCL Project</t>
+  </si>
+  <si>
+    <t>Create Project</t>
+  </si>
+  <si>
+    <t>UML Diagram, paper reference (SfS)</t>
+  </si>
+  <si>
+    <t>IMPORTANT</t>
+  </si>
+  <si>
+    <t>Rewrite all C --&gt; to hierarchical structure</t>
+  </si>
+  <si>
+    <t>Read over paper (Notations)</t>
+  </si>
+  <si>
+    <t>Replace all notations (C1 --&gt; C1,1)</t>
+  </si>
+  <si>
+    <t>Axis calculation, centroid, ... (PCA --&gt; AABB)</t>
+  </si>
+  <si>
+    <t>Registration for two point clouds (ICP implementation)</t>
+  </si>
+  <si>
+    <t>Visualizations with right notations</t>
+  </si>
+  <si>
+    <t>Write algorithm divide</t>
+  </si>
+  <si>
+    <t>Write algorithm merge</t>
+  </si>
+  <si>
+    <t>Rewrite all subclusters to own Notation</t>
+  </si>
+  <si>
+    <t>Write divide algorithm, replace notations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,8 +353,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2BFF09"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2AFE09"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +494,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -459,8 +516,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -488,8 +547,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -500,6 +562,7 @@
     <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -510,6 +573,7 @@
     <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -839,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1375,7 +1439,7 @@
         <v>43179</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E63" t="s">
         <v>49</v>
@@ -1385,24 +1449,33 @@
       <c r="A64" s="2">
         <v>43182</v>
       </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="65" spans="1:12" ht="18">
       <c r="A65" s="2">
         <v>43185</v>
       </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
       <c r="E65" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="19" thickBot="1">
       <c r="A66" s="2">
         <v>43186</v>
       </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
       <c r="E66" s="15"/>
     </row>
     <row r="67" spans="1:12">
       <c r="E67" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
@@ -1412,8 +1485,14 @@
       <c r="K67" s="21"/>
     </row>
     <row r="68" spans="1:12" ht="16" thickBot="1">
+      <c r="A68" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
       <c r="E68" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
@@ -1422,18 +1501,30 @@
       <c r="J68" s="23"/>
       <c r="K68" s="24"/>
       <c r="L68" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="E69" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:12">
+      <c r="A70" s="2">
+        <v>43195</v>
+      </c>
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
       <c r="E70" s="17" t="s">
         <v>52</v>
       </c>
@@ -1441,12 +1532,15 @@
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="J70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2">
-        <v>43183</v>
+        <v>43196</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="E71" s="18" t="s">
         <v>50</v>
@@ -1458,31 +1552,30 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2">
-        <v>43184</v>
+        <v>43197</v>
       </c>
       <c r="E72" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:12">
+      <c r="A73" s="2">
+        <v>43198</v>
+      </c>
       <c r="E73" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="2">
-        <v>43190</v>
-      </c>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:12" ht="18">
-      <c r="A75" s="2">
-        <v>43191</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>74</v>
+      <c r="A75" s="2"/>
+      <c r="D75" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -1505,64 +1598,124 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="5:5">
-      <c r="E81" t="s">
+    <row r="81" spans="5:7">
+      <c r="E81" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" s="16"/>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="E82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7">
+      <c r="E83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7">
+      <c r="E84" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="5:5">
-      <c r="E82" t="s">
+    <row r="85" spans="5:7">
+      <c r="E85" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="5:5">
-      <c r="E83" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5">
-      <c r="E84" t="s">
+    <row r="87" spans="5:7">
+      <c r="E87" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="5:5">
-      <c r="E86" s="8" t="s">
+    <row r="88" spans="5:7">
+      <c r="E88" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+    </row>
+    <row r="89" spans="5:7">
+      <c r="E89" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7">
+      <c r="E90" s="25" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="87" spans="5:5">
-      <c r="E87" t="s">
+      <c r="F90" s="25"/>
+    </row>
+    <row r="91" spans="5:7">
+      <c r="E91" s="25" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="88" spans="5:5">
-      <c r="E88" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5">
-      <c r="E89" t="s">
+      <c r="F91" s="25"/>
+    </row>
+    <row r="92" spans="5:7">
+      <c r="E92" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7">
+      <c r="E93" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="5:5">
-      <c r="E90" t="s">
+    <row r="94" spans="5:7">
+      <c r="E94" s="16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="91" spans="5:5">
-      <c r="E91" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="5:5">
-      <c r="E92" t="s">
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" spans="5:7">
+      <c r="E95" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="5:5">
-      <c r="E93" t="s">
-        <v>70</v>
+    <row r="97" spans="5:7">
+      <c r="E97" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7">
+      <c r="E98" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+    </row>
+    <row r="99" spans="5:7">
+      <c r="E99" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="5:7">
+      <c r="E100" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+    </row>
+    <row r="101" spans="5:7">
+      <c r="E101" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="5:7">
+      <c r="E102" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7">
+      <c r="E103" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -361,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +419,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2AFE09"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF31FF0C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF0C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF30FF0C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +537,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -550,6 +568,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -905,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1681,37 +1702,39 @@
       </c>
     </row>
     <row r="98" spans="5:7">
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
     </row>
     <row r="99" spans="5:7">
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
     </row>
     <row r="100" spans="5:7">
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
     </row>
     <row r="101" spans="5:7">
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
     </row>
     <row r="102" spans="5:7">
-      <c r="E102" t="s">
+      <c r="E102" s="30" t="s">
         <v>84</v>
       </c>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Zeitplan Masterarbeit</t>
   </si>
   <si>
-    <t>ToDo</t>
-  </si>
-  <si>
     <t>Structure: Approach, Implementation, Results, Improvements</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>Writing</t>
   </si>
   <si>
-    <t>AR</t>
-  </si>
-  <si>
     <t>Create Unity AR Project with markers</t>
   </si>
   <si>
@@ -228,21 +222,12 @@
     <t>UI for dragging atoms in scene</t>
   </si>
   <si>
-    <t>further algorithms: merging, noise removal</t>
-  </si>
-  <si>
     <t>Cite Papers and structure beginning (--&gt; midline following blood vessel segmentation)</t>
   </si>
   <si>
-    <t>Implementation (articulated object)</t>
-  </si>
-  <si>
     <t>!!!</t>
   </si>
   <si>
-    <t>Theoretic part: Related methods, 3D Scanning/Reconstruction</t>
-  </si>
-  <si>
     <t>needs a lot of work</t>
   </si>
   <si>
@@ -267,9 +252,6 @@
     <t>UML Diagram, paper reference (SfS)</t>
   </si>
   <si>
-    <t>IMPORTANT</t>
-  </si>
-  <si>
     <t>Rewrite all C --&gt; to hierarchical structure</t>
   </si>
   <si>
@@ -301,13 +283,64 @@
   </si>
   <si>
     <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t>Check algorithms in eclipse</t>
+  </si>
+  <si>
+    <t>Page with notations</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Stories</t>
+  </si>
+  <si>
+    <t>Theoretic part: State of the Art, Related methods, 3D Scanning/Reconstruction</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>TESTING --&gt; what does work, what does not work</t>
+  </si>
+  <si>
+    <t>Explain: what does work? What does not?</t>
+  </si>
+  <si>
+    <t>Implementation 2D (articulated object)</t>
+  </si>
+  <si>
+    <t>Augmented Reality</t>
+  </si>
+  <si>
+    <t>Add Programming examples</t>
+  </si>
+  <si>
+    <t>Find test data</t>
+  </si>
+  <si>
+    <t>Implement improvements</t>
+  </si>
+  <si>
+    <t>Plan further improvements</t>
+  </si>
+  <si>
+    <t>Start with 3D functionality</t>
+  </si>
+  <si>
+    <t>Reread document!</t>
+  </si>
+  <si>
+    <t>Notations, merge algorithmus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -360,8 +393,33 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,18 +488,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF0C"/>
+        <fgColor rgb="FF30FF0C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF30FF0C"/>
+        <fgColor rgb="FF34FF0D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF36FF0D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34FD0D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -511,8 +593,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -536,8 +627,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -571,8 +678,17 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="39">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -584,6 +700,14 @@
     <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -595,6 +719,14 @@
     <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -924,16 +1056,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23">
@@ -1455,290 +1589,422 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="20">
       <c r="A63" s="2">
         <v>43179</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16" thickBot="1">
       <c r="A64" s="2">
         <v>43182</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="18">
       <c r="A65" s="2">
         <v>43185</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="19" thickBot="1">
+        <v>59</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="21"/>
+    </row>
+    <row r="66" spans="1:14" ht="19" thickBot="1">
       <c r="A66" s="2">
         <v>43186</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E66" s="15"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="E67" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="21"/>
-    </row>
-    <row r="68" spans="1:12" ht="16" thickBot="1">
+      <c r="F66" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="F67" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="2">
         <v>43192</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>76</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="2">
         <v>43194</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
+        <v>79</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="H69" s="18"/>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="2">
         <v>43195</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="J70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>86</v>
+      </c>
+      <c r="F70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="2">
         <v>43196</v>
       </c>
       <c r="B71" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="39">
+        <v>43197</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="39">
+        <v>43198</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="2">
+        <v>43199</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="18">
+      <c r="A75" s="2">
+        <v>43200</v>
+      </c>
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="2">
+        <v>43201</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="2">
+        <v>43202</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="2">
+        <v>43203</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="39">
+        <v>43204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="39">
+        <v>43205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="18">
+      <c r="A81" s="2">
+        <v>43206</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="2">
+        <v>43207</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="2">
+        <v>43208</v>
+      </c>
+      <c r="F83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="2">
+        <v>43209</v>
+      </c>
+      <c r="F84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="2">
+        <v>43210</v>
+      </c>
+      <c r="F85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="39">
+        <v>43211</v>
+      </c>
+      <c r="F86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="39">
+        <v>43212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="2">
+        <v>43213</v>
+      </c>
+      <c r="D88" s="35"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="34"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="2">
+        <v>43214</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="F90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="F91" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G91" s="25"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="F92" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G92" s="25"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="F93" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="F94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="F95" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="F96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" ht="20">
+      <c r="E98" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="2">
-        <v>43197</v>
-      </c>
-      <c r="E72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="2">
-        <v>43198</v>
-      </c>
-      <c r="E73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="2"/>
-    </row>
-    <row r="75" spans="1:12" ht="18">
-      <c r="A75" s="2"/>
-      <c r="D75" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="E76" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="E77" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="E78" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="18">
-      <c r="E80" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="5:7">
-      <c r="E81" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F81" s="16"/>
-    </row>
-    <row r="82" spans="5:7">
-      <c r="E82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="5:7">
-      <c r="E83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="5:7">
-      <c r="E84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="5:7">
-      <c r="E85" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="5:7">
-      <c r="E87" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="5:7">
-      <c r="E88" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-    </row>
-    <row r="89" spans="5:7">
-      <c r="E89" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90" spans="5:7">
-      <c r="E90" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F90" s="25"/>
-    </row>
-    <row r="91" spans="5:7">
-      <c r="E91" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F91" s="25"/>
-    </row>
-    <row r="92" spans="5:7">
-      <c r="E92" s="6" t="s">
+    </row>
+    <row r="100" spans="4:7">
+      <c r="D100" s="33">
+        <v>43193</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+    </row>
+    <row r="101" spans="4:7">
+      <c r="E101" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+    </row>
+    <row r="102" spans="4:7">
+      <c r="E102" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+    </row>
+    <row r="103" spans="4:7">
+      <c r="E103" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F103" s="38"/>
+      <c r="G103" s="38"/>
+    </row>
+    <row r="104" spans="4:7">
+      <c r="E104" s="29" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="93" spans="5:7">
-      <c r="E93" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="5:7">
-      <c r="E94" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-    </row>
-    <row r="95" spans="5:7">
-      <c r="E95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="5:7">
-      <c r="E97" s="27" t="s">
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+    </row>
+    <row r="105" spans="4:7">
+      <c r="E105" s="30" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="98" spans="5:7">
-      <c r="E98" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-    </row>
-    <row r="99" spans="5:7">
-      <c r="E99" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-    </row>
-    <row r="100" spans="5:7">
-      <c r="E100" s="28" t="s">
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+    </row>
+    <row r="106" spans="4:7">
+      <c r="E106" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+    </row>
+    <row r="107" spans="4:7">
+      <c r="E107" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-    </row>
-    <row r="101" spans="5:7">
-      <c r="E101" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-    </row>
-    <row r="102" spans="5:7">
-      <c r="E102" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-    </row>
-    <row r="103" spans="5:7">
-      <c r="E103" t="s">
-        <v>88</v>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+    </row>
+    <row r="108" spans="4:7">
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="4:7">
+      <c r="D109" s="33">
+        <v>43200</v>
+      </c>
+      <c r="E109" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="4:7">
+      <c r="E110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="4:7">
+      <c r="E111" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7">
+      <c r="E112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5">
+      <c r="E115" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -210,18 +210,12 @@
     <t>Create classes</t>
   </si>
   <si>
-    <t>Test Merging</t>
-  </si>
-  <si>
     <t>Implement touch gestures for moving</t>
   </si>
   <si>
     <t>Create 3D object atom + Animation electrons</t>
   </si>
   <si>
-    <t>UI for dragging atoms in scene</t>
-  </si>
-  <si>
     <t>Cite Papers and structure beginning (--&gt; midline following blood vessel segmentation)</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t>AR Project</t>
   </si>
   <si>
-    <t>Test positioning</t>
-  </si>
-  <si>
     <t>Create PCL Project</t>
   </si>
   <si>
@@ -334,6 +325,21 @@
   </si>
   <si>
     <t>Notations, merge algorithmus</t>
+  </si>
+  <si>
+    <t>AR project - mechanics</t>
+  </si>
+  <si>
+    <t>AR project - drag</t>
+  </si>
+  <si>
+    <t>Test positioning, selection of Atoms</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Improve</t>
   </si>
 </sst>
 </file>
@@ -346,6 +352,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1058,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1594,10 +1601,10 @@
         <v>43179</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16" thickBot="1">
@@ -1605,7 +1612,7 @@
         <v>43182</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="18">
@@ -1613,13 +1620,13 @@
         <v>43185</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>59</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
@@ -1633,11 +1640,11 @@
         <v>43186</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
@@ -1646,12 +1653,12 @@
       <c r="L66" s="23"/>
       <c r="M66" s="24"/>
       <c r="N66" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="F67" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
@@ -1662,7 +1669,7 @@
         <v>43192</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>51</v>
@@ -1676,7 +1683,7 @@
         <v>43194</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F69" s="18" t="s">
         <v>49</v>
@@ -1691,7 +1698,7 @@
         <v>43195</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F70" t="s">
         <v>50</v>
@@ -1702,7 +1709,7 @@
         <v>43196</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F71" t="s">
         <v>52</v>
@@ -1713,7 +1720,7 @@
         <v>43197</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -1721,7 +1728,7 @@
         <v>43198</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -1729,7 +1736,7 @@
         <v>43199</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="18">
@@ -1737,13 +1744,13 @@
         <v>43200</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>53</v>
@@ -1753,6 +1760,9 @@
       <c r="A76" s="2">
         <v>43201</v>
       </c>
+      <c r="B76" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="F76" s="14" t="s">
         <v>54</v>
       </c>
@@ -1761,6 +1771,9 @@
       <c r="A77" s="2">
         <v>43202</v>
       </c>
+      <c r="B77" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="F77" s="14" t="s">
         <v>55</v>
       </c>
@@ -1769,14 +1782,20 @@
       <c r="A78" s="2">
         <v>43203</v>
       </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
       <c r="F78" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="39">
         <v>43204</v>
       </c>
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="39">
@@ -1796,7 +1815,7 @@
         <v>43207</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -1804,7 +1823,7 @@
         <v>43208</v>
       </c>
       <c r="F83" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -1812,7 +1831,7 @@
         <v>43209</v>
       </c>
       <c r="F84" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -1848,12 +1867,12 @@
       <c r="I88" s="36"/>
       <c r="J88" s="34"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" ht="18">
       <c r="A89" s="2">
         <v>43214</v>
       </c>
-      <c r="E89" s="8" t="s">
-        <v>97</v>
+      <c r="E89" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>60</v>
@@ -1862,9 +1881,11 @@
       <c r="H89" s="25"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="F90" t="s">
-        <v>65</v>
-      </c>
+      <c r="F90" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
     </row>
     <row r="91" spans="1:10">
       <c r="F91" s="25" t="s">
@@ -1880,29 +1901,29 @@
     </row>
     <row r="93" spans="1:10">
       <c r="F93" s="6" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="F94" t="s">
+      <c r="F94" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="F95" s="29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="F95" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
     </row>
     <row r="96" spans="1:10">
       <c r="F96" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="4:7" ht="20">
       <c r="E98" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="4:7">
@@ -1910,56 +1931,56 @@
         <v>43193</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
     </row>
     <row r="101" spans="4:7">
       <c r="E101" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F101" s="30"/>
       <c r="G101" s="30"/>
     </row>
     <row r="102" spans="4:7">
       <c r="E102" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F102" s="28"/>
       <c r="G102" s="28"/>
     </row>
     <row r="103" spans="4:7">
       <c r="E103" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
     </row>
     <row r="104" spans="4:7">
       <c r="E104" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
     </row>
     <row r="105" spans="4:7">
       <c r="E105" s="30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F105" s="30"/>
       <c r="G105" s="30"/>
     </row>
     <row r="106" spans="4:7">
       <c r="E106" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F106" s="31"/>
       <c r="G106" s="31"/>
     </row>
     <row r="107" spans="4:7">
       <c r="E107" s="38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -1974,37 +1995,37 @@
         <v>43200</v>
       </c>
       <c r="E109" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="4:7">
       <c r="E110" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="4:7">
       <c r="E111" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="4:7">
       <c r="E112" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="5:5">
       <c r="E114" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" spans="5:5">
       <c r="E115" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="117">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Segmentation of point clouds</t>
   </si>
   <si>
-    <t>Coloring of points</t>
-  </si>
-  <si>
     <t>Writing</t>
   </si>
   <si>
@@ -297,33 +294,18 @@
     <t>TESTING --&gt; what does work, what does not work</t>
   </si>
   <si>
-    <t>Explain: what does work? What does not?</t>
-  </si>
-  <si>
     <t>Implementation 2D (articulated object)</t>
   </si>
   <si>
     <t>Augmented Reality</t>
   </si>
   <si>
-    <t>Add Programming examples</t>
-  </si>
-  <si>
     <t>Find test data</t>
   </si>
   <si>
-    <t>Implement improvements</t>
-  </si>
-  <si>
     <t>Plan further improvements</t>
   </si>
   <si>
-    <t>Start with 3D functionality</t>
-  </si>
-  <si>
-    <t>Reread document!</t>
-  </si>
-  <si>
     <t>Notations, merge algorithmus</t>
   </si>
   <si>
@@ -336,10 +318,58 @@
     <t>Test positioning, selection of Atoms</t>
   </si>
   <si>
-    <t>Design</t>
-  </si>
-  <si>
     <t>Improve</t>
+  </si>
+  <si>
+    <t>UI Design</t>
+  </si>
+  <si>
+    <t>Elements: lock rotation + enlarge collider bottom</t>
+  </si>
+  <si>
+    <t>AR learning</t>
+  </si>
+  <si>
+    <t>AR learning + bug fixes</t>
+  </si>
+  <si>
+    <t>AR documentation</t>
+  </si>
+  <si>
+    <t>AR poject - functionality</t>
+  </si>
+  <si>
+    <t>AR documentation + bug fixes</t>
+  </si>
+  <si>
+    <t>points in hours</t>
+  </si>
+  <si>
+    <t>8 points per day</t>
+  </si>
+  <si>
+    <t>Coloring/Storing of points</t>
+  </si>
+  <si>
+    <t>Rewrite: what does work? What does not?</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Implement region growing + error handling</t>
+  </si>
+  <si>
+    <t>Add Programming examples + Text</t>
   </si>
 </sst>
 </file>
@@ -352,7 +382,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +559,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2FFF0C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2DF50D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -610,7 +652,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -650,8 +692,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -670,7 +716,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -694,8 +739,10 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="43">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -715,6 +762,8 @@
     <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -734,6 +783,8 @@
     <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1063,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1499,7 +1550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>43163</v>
       </c>
@@ -1507,7 +1558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>43164</v>
       </c>
@@ -1518,7 +1569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>43165</v>
       </c>
@@ -1529,7 +1580,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>43166</v>
       </c>
@@ -1540,7 +1591,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>43167</v>
       </c>
@@ -1551,7 +1602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>43168</v>
       </c>
@@ -1559,7 +1610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>43169</v>
       </c>
@@ -1567,15 +1618,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>43170</v>
       </c>
       <c r="B56" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>43171</v>
       </c>
@@ -1586,446 +1640,567 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>43172</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="23">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <v>13</v>
+      </c>
+      <c r="K58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="F60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="23">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="20">
+    <row r="63" spans="1:11" ht="20">
       <c r="A63" s="2">
         <v>43179</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="16" thickBot="1">
+        <v>67</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16" thickBot="1">
       <c r="A64" s="2">
         <v>43182</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="18">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="18">
       <c r="A65" s="2">
         <v>43185</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="21"/>
-    </row>
-    <row r="66" spans="1:14" ht="19" thickBot="1">
+        <v>58</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="20"/>
+    </row>
+    <row r="66" spans="1:16" ht="19" thickBot="1">
       <c r="A66" s="2">
         <v>43186</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E66" s="15"/>
-      <c r="F66" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="24"/>
+      <c r="F66" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="23"/>
       <c r="N66" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="F67" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-    </row>
-    <row r="68" spans="1:14">
+        <v>66</v>
+      </c>
+      <c r="P66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="F67" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="2">
         <v>43192</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
-      </c>
-      <c r="F68" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="2">
         <v>43194</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="2">
         <v>43195</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F70" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:16">
       <c r="A71" s="2">
         <v>43196</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F71" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="39">
+    <row r="72" spans="1:16">
+      <c r="A72" s="38">
         <v>43197</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="38">
         <v>43198</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="2">
         <v>43199</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="18">
       <c r="A75" s="2">
         <v>43200</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>66</v>
+        <v>95</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="K75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="2">
         <v>43201</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="K76">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="2">
         <v>43202</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="K77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="2">
         <v>43203</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="39">
+        <v>90</v>
+      </c>
+      <c r="K78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="38">
         <v>43204</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="39">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="38">
         <v>43205</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="18">
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="18">
       <c r="A81" s="2">
         <v>43206</v>
       </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
       <c r="E81" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>43207</v>
       </c>
-      <c r="F82" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="B82" t="s">
+        <v>104</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>43208</v>
       </c>
+      <c r="B83" t="s">
+        <v>104</v>
+      </c>
       <c r="F83" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>77</v>
+      </c>
+      <c r="K83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>43209</v>
       </c>
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
       <c r="F84" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>76</v>
+      </c>
+      <c r="K84">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>43210</v>
       </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
       <c r="F85" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="39">
+      <c r="K85">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="38">
         <v>43211</v>
       </c>
+      <c r="B86" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="F86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="39">
+        <v>109</v>
+      </c>
+      <c r="K86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="38">
         <v>43212</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>43213</v>
       </c>
-      <c r="D88" s="35"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="34"/>
-    </row>
-    <row r="89" spans="1:10" ht="18">
+      <c r="D88" s="34"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="33"/>
+    </row>
+    <row r="89" spans="1:11" ht="18">
       <c r="A89" s="2">
         <v>43214</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F89" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="F90" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="F91" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="F90" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="F91" s="25" t="s">
+      <c r="G91" s="24"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="F92" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G91" s="25"/>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="F92" s="25" t="s">
+      <c r="G92" s="24"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="F93" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="F94" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="F95" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G92" s="25"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="F93" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="F94" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="F95" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="F96" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="4:7" ht="20">
-      <c r="E98" s="37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="100" spans="4:7">
-      <c r="D100" s="33">
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="F96" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+    </row>
+    <row r="97" spans="4:9">
+      <c r="F97" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+    </row>
+    <row r="98" spans="4:9" ht="20">
+      <c r="E98" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="4:9">
+      <c r="D100" s="32">
         <v>43193</v>
       </c>
-      <c r="E100" s="29" t="s">
+      <c r="E100" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+    </row>
+    <row r="101" spans="4:9">
+      <c r="E101" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+    </row>
+    <row r="102" spans="4:9">
+      <c r="E102" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+    </row>
+    <row r="103" spans="4:9">
+      <c r="E103" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+    </row>
+    <row r="104" spans="4:9">
+      <c r="E104" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-    </row>
-    <row r="101" spans="4:7">
-      <c r="E101" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-    </row>
-    <row r="102" spans="4:7">
-      <c r="E102" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-    </row>
-    <row r="103" spans="4:7">
-      <c r="E103" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-    </row>
-    <row r="104" spans="4:7">
-      <c r="E104" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-    </row>
-    <row r="105" spans="4:7">
-      <c r="E105" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-    </row>
-    <row r="106" spans="4:7">
-      <c r="E106" s="31" t="s">
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+    </row>
+    <row r="105" spans="4:9">
+      <c r="E105" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+    </row>
+    <row r="106" spans="4:9">
+      <c r="E106" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+    </row>
+    <row r="107" spans="4:9">
+      <c r="E107" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
-    </row>
-    <row r="107" spans="4:7">
-      <c r="E107" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-    </row>
-    <row r="108" spans="4:7">
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+    </row>
+    <row r="108" spans="4:9">
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="4:7">
-      <c r="D109" s="33">
+    <row r="109" spans="4:9">
+      <c r="D109" s="32">
         <v>43200</v>
       </c>
       <c r="E109" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="4:7">
+        <v>116</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="4:9">
       <c r="E110" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="111" spans="4:7">
+        <v>110</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="4:9">
       <c r="E111" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="112" spans="4:7">
+        <v>115</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="4:9">
       <c r="E112" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5">
+        <v>93</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="5:11">
       <c r="E113" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5">
-      <c r="E114" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="115" spans="5:5">
-      <c r="E115" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="F113">
+        <v>5</v>
+      </c>
+      <c r="H113" t="s">
+        <v>111</v>
+      </c>
+      <c r="I113" t="s">
+        <v>112</v>
+      </c>
+      <c r="J113" t="s">
+        <v>113</v>
+      </c>
+      <c r="K113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="5:11">
+      <c r="F114" s="8">
+        <f>SUM(F109:F113)</f>
+        <v>29</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <v>5</v>
+      </c>
+      <c r="K114">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="116">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -354,12 +354,6 @@
     <t>Rewrite: what does work? What does not?</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
     <t>SO</t>
   </si>
   <si>
@@ -370,6 +364,9 @@
   </si>
   <si>
     <t>Add Programming examples + Text</t>
+  </si>
+  <si>
+    <t>Implement Input class (for setting variables)</t>
   </si>
 </sst>
 </file>
@@ -456,7 +453,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +568,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33F50F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -652,7 +655,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -696,8 +699,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -741,8 +746,9 @@
     <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -764,6 +770,7 @@
     <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -785,6 +792,7 @@
     <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1114,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1888,6 +1896,12 @@
       <c r="B79" t="s">
         <v>97</v>
       </c>
+      <c r="F79" t="s">
+        <v>115</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="38">
@@ -2135,7 +2149,7 @@
         <v>43200</v>
       </c>
       <c r="E109" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -2150,11 +2164,14 @@
       </c>
     </row>
     <row r="111" spans="4:9">
+      <c r="D111" t="s">
+        <v>65</v>
+      </c>
       <c r="E111" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F111">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="4:9">
@@ -2172,35 +2189,38 @@
       <c r="F113">
         <v>5</v>
       </c>
-      <c r="H113" t="s">
+      <c r="J113" t="s">
         <v>111</v>
       </c>
-      <c r="I113" t="s">
+      <c r="K113" t="s">
         <v>112</v>
       </c>
-      <c r="J113" t="s">
-        <v>113</v>
-      </c>
-      <c r="K113" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="114" spans="5:11">
-      <c r="F114" s="8">
-        <f>SUM(F109:F113)</f>
-        <v>29</v>
-      </c>
-      <c r="H114">
+      <c r="E114" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F114" s="41">
         <v>3</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>3</v>
       </c>
-      <c r="J114">
-        <v>5</v>
-      </c>
-      <c r="K114">
-        <v>8</v>
+    </row>
+    <row r="115" spans="5:11">
+      <c r="F115" s="8">
+        <f>SUM(F109:F114)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="5:11">
+      <c r="J118">
+        <f>SUM(J114:J117)</f>
+        <v>3</v>
+      </c>
+      <c r="K118">
+        <f>SUM(K114:K117)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="133">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -354,19 +354,70 @@
     <t>Rewrite: what does work? What does not?</t>
   </si>
   <si>
+    <t>Implement region growing + error handling</t>
+  </si>
+  <si>
+    <t>Add Programming examples + Text</t>
+  </si>
+  <si>
+    <t>Implement Input class (for setting variables)</t>
+  </si>
+  <si>
+    <t>Implement ICP with procrustes fit</t>
+  </si>
+  <si>
+    <t>Implement LRP + ICP with finding biggest cluster</t>
+  </si>
+  <si>
+    <t>Install PCL</t>
+  </si>
+  <si>
+    <t>Research keypoints, RANSAC, ICP</t>
+  </si>
+  <si>
+    <t>20 points per week</t>
+  </si>
+  <si>
+    <t>Region growing implementation</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
     <t>SO</t>
   </si>
   <si>
     <t>MO</t>
   </si>
   <si>
-    <t>Implement region growing + error handling</t>
-  </si>
-  <si>
-    <t>Add Programming examples + Text</t>
-  </si>
-  <si>
-    <t>Implement Input class (for setting variables)</t>
+    <t>Implement Region growing from LRP</t>
+  </si>
+  <si>
+    <t>Find/Write paper Sensors</t>
+  </si>
+  <si>
+    <t>Find/Write papers non-rigid registration</t>
+  </si>
+  <si>
+    <t>Write Scanning, Reconstruction + Paper general</t>
+  </si>
+  <si>
+    <t>Find/Write papers Shape fitting/Elipsoid fitting</t>
   </si>
 </sst>
 </file>
@@ -379,7 +430,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,7 +503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +624,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF36FF0E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -655,7 +711,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -701,8 +757,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -747,8 +807,11 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="49">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -771,6 +834,8 @@
     <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -793,6 +858,8 @@
     <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1122,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P118"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1897,7 +1964,7 @@
         <v>97</v>
       </c>
       <c r="F79" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K79">
         <v>3</v>
@@ -1997,6 +2064,9 @@
     <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>43213</v>
+      </c>
+      <c r="B88" t="s">
+        <v>119</v>
       </c>
       <c r="D88" s="34"/>
       <c r="E88" s="35"/>
@@ -2007,8 +2077,11 @@
       <c r="J88" s="33"/>
     </row>
     <row r="89" spans="1:11" ht="18">
-      <c r="A89" s="2">
+      <c r="A89" s="43">
         <v>43214</v>
+      </c>
+      <c r="B89" t="s">
+        <v>120</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>92</v>
@@ -2020,6 +2093,9 @@
       <c r="H89" s="24"/>
     </row>
     <row r="90" spans="1:11">
+      <c r="A90" s="2">
+        <v>43215</v>
+      </c>
       <c r="F90" s="28" t="s">
         <v>63</v>
       </c>
@@ -2027,18 +2103,27 @@
       <c r="H90" s="28"/>
     </row>
     <row r="91" spans="1:11">
+      <c r="A91" s="2">
+        <v>43216</v>
+      </c>
       <c r="F91" s="24" t="s">
         <v>60</v>
       </c>
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="1:11">
+      <c r="A92" s="2">
+        <v>43217</v>
+      </c>
       <c r="F92" s="24" t="s">
         <v>61</v>
       </c>
       <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:11">
+      <c r="A93" s="2">
+        <v>43218</v>
+      </c>
       <c r="F93" s="39" t="s">
         <v>98</v>
       </c>
@@ -2046,6 +2131,9 @@
       <c r="H93" s="39"/>
     </row>
     <row r="94" spans="1:11">
+      <c r="A94" s="2">
+        <v>43219</v>
+      </c>
       <c r="F94" s="39" t="s">
         <v>99</v>
       </c>
@@ -2053,6 +2141,9 @@
       <c r="H94" s="39"/>
     </row>
     <row r="95" spans="1:11">
+      <c r="A95" s="2">
+        <v>43220</v>
+      </c>
       <c r="F95" s="28" t="s">
         <v>62</v>
       </c>
@@ -2060,6 +2151,9 @@
       <c r="H95" s="28"/>
     </row>
     <row r="96" spans="1:11">
+      <c r="A96" s="43">
+        <v>43221</v>
+      </c>
       <c r="F96" s="40" t="s">
         <v>100</v>
       </c>
@@ -2067,7 +2161,10 @@
       <c r="H96" s="40"/>
       <c r="I96" s="40"/>
     </row>
-    <row r="97" spans="4:9">
+    <row r="97" spans="1:9">
+      <c r="A97" s="2">
+        <v>43222</v>
+      </c>
       <c r="F97" s="40" t="s">
         <v>101</v>
       </c>
@@ -2075,12 +2172,23 @@
       <c r="H97" s="40"/>
       <c r="I97" s="40"/>
     </row>
-    <row r="98" spans="4:9" ht="20">
+    <row r="98" spans="1:9" ht="20">
+      <c r="A98" s="2">
+        <v>43223</v>
+      </c>
       <c r="E98" s="36" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="4:9">
+    <row r="99" spans="1:9">
+      <c r="A99" s="2">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="2">
+        <v>43225</v>
+      </c>
       <c r="D100" s="32">
         <v>43193</v>
       </c>
@@ -2090,72 +2198,81 @@
       <c r="F100" s="28"/>
       <c r="G100" s="28"/>
     </row>
-    <row r="101" spans="4:9">
+    <row r="101" spans="1:9">
+      <c r="A101" s="2">
+        <v>43226</v>
+      </c>
       <c r="E101" s="29" t="s">
         <v>81</v>
       </c>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
     </row>
-    <row r="102" spans="4:9">
+    <row r="102" spans="1:9">
+      <c r="A102" s="2">
+        <v>43227</v>
+      </c>
       <c r="E102" s="27" t="s">
         <v>79</v>
       </c>
       <c r="F102" s="27"/>
       <c r="G102" s="27"/>
     </row>
-    <row r="103" spans="4:9">
+    <row r="103" spans="1:9">
+      <c r="A103" s="2">
+        <v>43228</v>
+      </c>
       <c r="E103" s="37" t="s">
         <v>80</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
     </row>
-    <row r="104" spans="4:9">
+    <row r="104" spans="1:9">
       <c r="E104" s="28" t="s">
         <v>74</v>
       </c>
       <c r="F104" s="28"/>
       <c r="G104" s="28"/>
     </row>
-    <row r="105" spans="4:9">
+    <row r="105" spans="1:9">
       <c r="E105" s="29" t="s">
         <v>78</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
     </row>
-    <row r="106" spans="4:9">
+    <row r="106" spans="1:9">
       <c r="E106" s="30" t="s">
         <v>84</v>
       </c>
       <c r="F106" s="30"/>
       <c r="G106" s="30"/>
     </row>
-    <row r="107" spans="4:9">
+    <row r="107" spans="1:9">
       <c r="E107" s="37" t="s">
         <v>85</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
     </row>
-    <row r="108" spans="4:9">
+    <row r="108" spans="1:9">
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="4:9">
+    <row r="109" spans="1:9">
       <c r="D109" s="32">
         <v>43200</v>
       </c>
       <c r="E109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F109">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="4:9">
+    <row r="110" spans="1:9">
       <c r="E110" t="s">
         <v>110</v>
       </c>
@@ -2163,18 +2280,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="4:9">
-      <c r="D111" t="s">
-        <v>65</v>
-      </c>
-      <c r="E111" t="s">
-        <v>113</v>
-      </c>
-      <c r="F111">
+    <row r="111" spans="1:9">
+      <c r="E111" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F111" s="42">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="4:9">
+    <row r="112" spans="1:9">
       <c r="E112" t="s">
         <v>93</v>
       </c>
@@ -2182,44 +2296,184 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="5:11">
-      <c r="E113" t="s">
+    <row r="113" spans="4:10">
+      <c r="E113" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="42">
         <v>5</v>
       </c>
-      <c r="J113" t="s">
-        <v>111</v>
-      </c>
-      <c r="K113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="5:11">
+    </row>
+    <row r="114" spans="4:10">
       <c r="E114" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F114" s="41">
         <v>3</v>
       </c>
-      <c r="J114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="5:11">
+    </row>
+    <row r="115" spans="4:10">
       <c r="F115" s="8">
         <f>SUM(F109:F114)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="5:11">
-      <c r="J118">
-        <f>SUM(J114:J117)</f>
-        <v>3</v>
-      </c>
-      <c r="K118">
-        <f>SUM(K114:K117)</f>
+    <row r="117" spans="4:10">
+      <c r="D117" s="32">
+        <v>43214</v>
+      </c>
+      <c r="E117" t="s">
+        <v>114</v>
+      </c>
+      <c r="F117">
+        <v>5</v>
+      </c>
+      <c r="I117" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="J117" s="44"/>
+    </row>
+    <row r="118" spans="4:10">
+      <c r="E118" t="s">
+        <v>115</v>
+      </c>
+      <c r="F118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="4:10">
+      <c r="E119" t="s">
+        <v>128</v>
+      </c>
+      <c r="F119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="4:10">
+      <c r="E120" t="s">
+        <v>116</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="I120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="4:10">
+      <c r="E121" t="s">
+        <v>61</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="I121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="4:10">
+      <c r="E122" t="s">
+        <v>117</v>
+      </c>
+      <c r="F122">
+        <v>4</v>
+      </c>
+      <c r="I122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="4:10">
+      <c r="E123" t="s">
+        <v>131</v>
+      </c>
+      <c r="F123">
+        <v>4</v>
+      </c>
+      <c r="I123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="4:10">
+      <c r="E124" t="s">
+        <v>129</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="I124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="4:10">
+      <c r="E125" t="s">
+        <v>132</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="I125" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="4:10">
+      <c r="E126" t="s">
+        <v>130</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="I126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="4:10">
+      <c r="J127">
+        <f xml:space="preserve"> SUM(J120:J126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="4:10">
+      <c r="F128">
+        <f>SUM(F117:F126)</f>
+        <v>41</v>
+      </c>
+      <c r="I128" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="9:10">
+      <c r="I129" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="9:10">
+      <c r="I130" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="9:10">
+      <c r="I131" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="9:10">
+      <c r="I132" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="9:10">
+      <c r="I133" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="9:10">
+      <c r="I134" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="9:10">
+      <c r="J135">
+        <f>SUM(J128:J134)</f>
         <v>0</v>
       </c>
     </row>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -430,6 +430,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,7 +504,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +631,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF36FF0F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -711,7 +718,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -761,8 +768,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -810,8 +819,9 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -836,6 +846,7 @@
     <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -860,6 +871,7 @@
     <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1192,7 +1204,7 @@
   <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2322,10 +2334,10 @@
       <c r="D117" s="32">
         <v>43214</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="45">
         <v>5</v>
       </c>
       <c r="I117" s="44" t="s">
@@ -2359,6 +2371,9 @@
       <c r="I120" t="s">
         <v>121</v>
       </c>
+      <c r="J120">
+        <v>5</v>
+      </c>
     </row>
     <row r="121" spans="4:10">
       <c r="E121" t="s">
@@ -2427,9 +2442,9 @@
       </c>
     </row>
     <row r="127" spans="4:10">
-      <c r="J127">
+      <c r="J127" s="8">
         <f xml:space="preserve"> SUM(J120:J126)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="4:10">
@@ -2472,12 +2487,56 @@
       </c>
     </row>
     <row r="135" spans="9:10">
-      <c r="J135">
-        <f>SUM(J128:J134)</f>
+      <c r="J135" s="8">
+        <f xml:space="preserve"> SUM(J128:J134)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J127">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J135">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:CRTarget Flags="8192"/>
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -408,29 +409,37 @@
     <t>Implement Region growing from LRP</t>
   </si>
   <si>
-    <t>Find/Write paper Sensors</t>
-  </si>
-  <si>
-    <t>Find/Write papers non-rigid registration</t>
-  </si>
-  <si>
-    <t>Write Scanning, Reconstruction + Paper general</t>
-  </si>
-  <si>
-    <t>Find/Write papers Shape fitting/Elipsoid fitting</t>
+    <t>Collect all State of the Art papers</t>
+  </si>
+  <si>
+    <t>Collect Non-rigid registration papers</t>
+  </si>
+  <si>
+    <t>Write Non-rigid registration papers</t>
+  </si>
+  <si>
+    <t>Implement elipse fitting</t>
+  </si>
+  <si>
+    <t>Write State of the Art + Structure</t>
+  </si>
+  <si>
+    <t>Create test data</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,8 +512,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,6 +653,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF22FF10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2CFF0F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -718,7 +746,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -770,8 +798,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -820,8 +852,11 @@
     <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="55">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -847,6 +882,8 @@
     <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -872,6 +909,8 @@
     <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1204,7 +1243,7 @@
   <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2308,7 +2347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="4:10">
+    <row r="113" spans="2:10">
       <c r="E113" s="42" t="s">
         <v>94</v>
       </c>
@@ -2316,7 +2355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="4:10">
+    <row r="114" spans="2:10">
       <c r="E114" s="41" t="s">
         <v>113</v>
       </c>
@@ -2324,13 +2363,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="4:10">
+    <row r="115" spans="2:10">
       <c r="F115" s="8">
         <f>SUM(F109:F114)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="4:10">
+    <row r="117" spans="2:10">
       <c r="D117" s="32">
         <v>43214</v>
       </c>
@@ -2345,7 +2384,7 @@
       </c>
       <c r="J117" s="44"/>
     </row>
-    <row r="118" spans="4:10">
+    <row r="118" spans="2:10">
       <c r="E118" t="s">
         <v>115</v>
       </c>
@@ -2353,7 +2392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="4:10">
+    <row r="119" spans="2:10">
       <c r="E119" t="s">
         <v>128</v>
       </c>
@@ -2361,7 +2400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="4:10">
+    <row r="120" spans="2:10">
       <c r="E120" t="s">
         <v>116</v>
       </c>
@@ -2375,7 +2414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="4:10">
+    <row r="121" spans="2:10">
       <c r="E121" t="s">
         <v>61</v>
       </c>
@@ -2385,8 +2424,11 @@
       <c r="I121" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="122" spans="4:10">
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10">
       <c r="E122" t="s">
         <v>117</v>
       </c>
@@ -2396,43 +2438,52 @@
       <c r="I122" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="123" spans="4:10">
-      <c r="E123" t="s">
-        <v>131</v>
-      </c>
-      <c r="F123">
-        <v>4</v>
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="E123" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F123" s="46">
+        <v>2</v>
       </c>
       <c r="I123" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="124" spans="4:10">
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" t="s">
+        <v>135</v>
+      </c>
       <c r="E124" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I124" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="4:10">
-      <c r="E125" t="s">
-        <v>132</v>
-      </c>
-      <c r="F125">
+    <row r="125" spans="2:10">
+      <c r="E125" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F125" s="48">
         <v>2</v>
       </c>
       <c r="I125" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="4:10">
+    <row r="126" spans="2:10">
       <c r="E126" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F126">
         <v>4</v>
@@ -2441,52 +2492,70 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="4:10">
+    <row r="127" spans="2:10">
+      <c r="D127" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E127" t="s">
+        <v>132</v>
+      </c>
+      <c r="F127">
+        <v>8</v>
+      </c>
       <c r="J127" s="8">
         <f xml:space="preserve"> SUM(J120:J126)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="4:10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="D128" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E128" t="s">
+        <v>134</v>
+      </c>
       <c r="F128">
-        <f>SUM(F117:F126)</f>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="I128" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="9:10">
+    <row r="129" spans="6:10">
+      <c r="F129">
+        <f>SUM(F117:F128)</f>
+        <v>54</v>
+      </c>
       <c r="I129" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="9:10">
+    <row r="130" spans="6:10">
       <c r="I130" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="9:10">
+    <row r="131" spans="6:10">
       <c r="I131" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="9:10">
+    <row r="132" spans="6:10">
       <c r="I132" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="9:10">
+    <row r="133" spans="6:10">
       <c r="I133" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="9:10">
+    <row r="134" spans="6:10">
       <c r="I134" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="9:10">
+    <row r="135" spans="6:10">
       <c r="J135" s="8">
         <f xml:space="preserve"> SUM(J128:J134)</f>
         <v>0</v>
@@ -2494,22 +2563,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J127">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="10"/>
-        <cfvo type="num" val="20"/>
-        <color rgb="FFFF7128"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -440,6 +440,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,7 +804,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -855,6 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1243,7 +1245,7 @@
   <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2453,7 +2455,7 @@
         <v>124</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="2:10">
@@ -2504,17 +2506,17 @@
       </c>
       <c r="J127" s="8">
         <f xml:space="preserve"> SUM(J120:J126)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="2:10">
       <c r="D128" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="49">
         <v>3</v>
       </c>
       <c r="I128" t="s">

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Write LRP algorithm</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1242,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P135"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="K130" sqref="K130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2387,10 +2389,10 @@
       <c r="J117" s="44"/>
     </row>
     <row r="118" spans="2:10">
-      <c r="E118" t="s">
+      <c r="E118" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="45">
         <v>6</v>
       </c>
     </row>
@@ -2403,168 +2405,179 @@
       </c>
     </row>
     <row r="120" spans="2:10">
-      <c r="E120" t="s">
-        <v>116</v>
-      </c>
-      <c r="F120">
-        <v>4</v>
-      </c>
-      <c r="I120" t="s">
-        <v>121</v>
-      </c>
-      <c r="J120">
-        <v>5</v>
+      <c r="E120" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F120" s="49">
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="E121" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="2:10">
       <c r="E122" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="F122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="2:10">
-      <c r="E123" s="46" t="s">
+      <c r="E123" t="s">
+        <v>117</v>
+      </c>
+      <c r="F123">
+        <v>4</v>
+      </c>
+      <c r="I123" t="s">
+        <v>123</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="E124" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="F123" s="46">
+      <c r="F124" s="46">
         <v>2</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I124" t="s">
         <v>124</v>
       </c>
-      <c r="J123">
+      <c r="J124">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:10">
-      <c r="B124" t="s">
+    <row r="125" spans="2:10">
+      <c r="B125" t="s">
         <v>135</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E125" t="s">
         <v>133</v>
       </c>
-      <c r="F124">
+      <c r="F125">
         <v>6</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I125" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="125" spans="2:10">
-      <c r="E125" s="48" t="s">
+      <c r="J125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="E126" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F125" s="48">
+      <c r="F126" s="48">
         <v>2</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I126" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="2:10">
-      <c r="E126" t="s">
+    <row r="127" spans="2:10">
+      <c r="E127" t="s">
         <v>131</v>
       </c>
-      <c r="F126">
+      <c r="F127">
         <v>4</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I127" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10">
-      <c r="D127" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E127" t="s">
-        <v>132</v>
-      </c>
-      <c r="F127">
-        <v>8</v>
-      </c>
-      <c r="J127" s="8">
-        <f xml:space="preserve"> SUM(J120:J126)</f>
-        <v>10</v>
       </c>
     </row>
     <row r="128" spans="2:10">
       <c r="D128" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="E128" s="49" t="s">
+      <c r="E128" t="s">
+        <v>132</v>
+      </c>
+      <c r="F128">
+        <v>8</v>
+      </c>
+      <c r="J128" s="8">
+        <f xml:space="preserve"> SUM(J121:J127)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="4:10">
+      <c r="D129" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E129" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="F128" s="49">
+      <c r="F129" s="49">
         <v>3</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I129" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="6:10">
-      <c r="F129">
-        <f>SUM(F117:F128)</f>
-        <v>54</v>
-      </c>
-      <c r="I129" t="s">
+    <row r="130" spans="4:10">
+      <c r="F130">
+        <f>SUM(F117:F129)</f>
+        <v>60</v>
+      </c>
+      <c r="I130" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="6:10">
-      <c r="I130" t="s">
+    <row r="131" spans="4:10">
+      <c r="I131" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="6:10">
-      <c r="I131" t="s">
+    <row r="132" spans="4:10">
+      <c r="I132" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="6:10">
-      <c r="I132" t="s">
+    <row r="133" spans="4:10">
+      <c r="I133" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="6:10">
-      <c r="I133" t="s">
+    <row r="134" spans="4:10">
+      <c r="I134" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="6:10">
-      <c r="I134" t="s">
+    <row r="135" spans="4:10">
+      <c r="I135" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="6:10">
-      <c r="J135" s="8">
-        <f xml:space="preserve"> SUM(J128:J134)</f>
+    <row r="136" spans="4:10">
+      <c r="J136" s="8">
+        <f xml:space="preserve"> SUM(J129:J135)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J127">
+  <conditionalFormatting sqref="J128">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2586,7 +2599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J135">
+  <conditionalFormatting sqref="J136">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -427,17 +427,17 @@
     <t>Create test data</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>Write LRP algorithm</t>
+  </si>
+  <si>
+    <t>Testing of implementation with new test data!!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,13 +513,6 @@
       <b/>
       <sz val="16"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -806,7 +799,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -856,7 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1246,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="K130" sqref="K130"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2397,22 +2389,25 @@
       </c>
     </row>
     <row r="119" spans="2:10">
-      <c r="E119" t="s">
+      <c r="E119" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="48">
         <v>8</v>
       </c>
     </row>
     <row r="120" spans="2:10">
-      <c r="E120" s="49" t="s">
+      <c r="E120" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="F120" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="F120" s="49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10">
       <c r="E121" t="s">
         <v>116</v>
       </c>
@@ -2469,9 +2464,6 @@
       </c>
     </row>
     <row r="125" spans="2:10">
-      <c r="B125" t="s">
-        <v>135</v>
-      </c>
       <c r="E125" t="s">
         <v>133</v>
       </c>
@@ -2486,14 +2478,17 @@
       </c>
     </row>
     <row r="126" spans="2:10">
-      <c r="E126" s="48" t="s">
+      <c r="E126" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="F126" s="48">
+      <c r="F126" s="47">
         <v>2</v>
       </c>
       <c r="I126" t="s">
         <v>126</v>
+      </c>
+      <c r="J126">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="2:10">
@@ -2506,9 +2501,12 @@
       <c r="I127" t="s">
         <v>127</v>
       </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
     </row>
     <row r="128" spans="2:10">
-      <c r="D128" s="47" t="s">
+      <c r="D128" s="26" t="s">
         <v>65</v>
       </c>
       <c r="E128" t="s">
@@ -2519,21 +2517,24 @@
       </c>
       <c r="J128" s="8">
         <f xml:space="preserve"> SUM(J121:J127)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="47" t="s">
+      <c r="D129" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E129" s="49" t="s">
+      <c r="E129" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="F129" s="49">
+      <c r="F129" s="48">
         <v>3</v>
       </c>
       <c r="I129" t="s">
         <v>121</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="4:10">
@@ -2573,7 +2574,7 @@
     <row r="136" spans="4:10">
       <c r="J136" s="8">
         <f xml:space="preserve"> SUM(J129:J135)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="137">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+      <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2524,10 +2524,10 @@
       <c r="D129" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E129" s="48" t="s">
+      <c r="E129" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="F129" s="48">
+      <c r="F129" s="42">
         <v>3</v>
       </c>
       <c r="I129" t="s">
@@ -2545,16 +2545,25 @@
       <c r="I130" t="s">
         <v>122</v>
       </c>
+      <c r="J130" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="131" spans="4:10">
       <c r="I131" t="s">
         <v>123</v>
       </c>
+      <c r="J131" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="132" spans="4:10">
       <c r="I132" t="s">
         <v>124</v>
       </c>
+      <c r="J132">
+        <v>3</v>
+      </c>
     </row>
     <row r="133" spans="4:10">
       <c r="I133" t="s">
@@ -2574,7 +2583,7 @@
     <row r="136" spans="4:10">
       <c r="J136" s="8">
         <f xml:space="preserve"> SUM(J129:J135)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -437,7 +437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -515,8 +515,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +668,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF36FF10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -799,7 +812,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -851,6 +864,8 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1239,7 +1254,7 @@
   <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="K133" sqref="K133"/>
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2320,10 +2335,10 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="E110" t="s">
+      <c r="E110" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="50">
         <v>3</v>
       </c>
     </row>
@@ -2336,10 +2351,10 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="E112" t="s">
+      <c r="E112" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="50">
         <v>5</v>
       </c>
     </row>
@@ -2397,10 +2412,10 @@
       </c>
     </row>
     <row r="120" spans="2:10">
-      <c r="E120" s="48" t="s">
+      <c r="E120" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="F120" s="48">
+      <c r="F120" s="50">
         <v>6</v>
       </c>
     </row>
@@ -2509,10 +2524,10 @@
       <c r="D128" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="49">
         <v>8</v>
       </c>
       <c r="J128" s="8">
@@ -2569,21 +2584,30 @@
       <c r="I133" t="s">
         <v>125</v>
       </c>
+      <c r="J133">
+        <v>4</v>
+      </c>
     </row>
     <row r="134" spans="4:10">
       <c r="I134" t="s">
         <v>126</v>
       </c>
+      <c r="J134">
+        <v>4</v>
+      </c>
     </row>
     <row r="135" spans="4:10">
       <c r="I135" t="s">
         <v>127</v>
       </c>
+      <c r="J135">
+        <v>4</v>
+      </c>
     </row>
     <row r="136" spans="4:10">
       <c r="J136" s="8">
         <f xml:space="preserve"> SUM(J129:J135)</f>
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="145">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -373,9 +373,6 @@
     <t>Install PCL</t>
   </si>
   <si>
-    <t>Research keypoints, RANSAC, ICP</t>
-  </si>
-  <si>
     <t>20 points per week</t>
   </si>
   <si>
@@ -418,9 +415,6 @@
     <t>Write Non-rigid registration papers</t>
   </si>
   <si>
-    <t>Implement elipse fitting</t>
-  </si>
-  <si>
     <t>Write State of the Art + Structure</t>
   </si>
   <si>
@@ -431,6 +425,36 @@
   </si>
   <si>
     <t>Testing of implementation with new test data!!!</t>
+  </si>
+  <si>
+    <t>Find papers concerning 2D features</t>
+  </si>
+  <si>
+    <t>Read paper FPFH</t>
+  </si>
+  <si>
+    <t>Implement features in 2D</t>
+  </si>
+  <si>
+    <t>POSTPONE</t>
+  </si>
+  <si>
+    <t>Create illustrations for chapter "Improvements"</t>
+  </si>
+  <si>
+    <t>Write introduction + State of the Art "rigid"</t>
+  </si>
+  <si>
+    <t>Write conclusion + Future work</t>
+  </si>
+  <si>
+    <t>Write "related work" (non-rigid registratoin)</t>
+  </si>
+  <si>
+    <t>Read non-rigid + summarize</t>
+  </si>
+  <si>
+    <t>Read rigid + summarize</t>
   </si>
 </sst>
 </file>
@@ -523,7 +547,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,6 +698,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF35FF0F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -755,8 +785,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -863,11 +909,11 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="71">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -895,6 +941,14 @@
     <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -922,6 +976,14 @@
     <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1251,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P136"/>
+  <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2128,7 +2190,7 @@
         <v>43213</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D88" s="34"/>
       <c r="E88" s="35"/>
@@ -2143,7 +2205,7 @@
         <v>43214</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>92</v>
@@ -2335,10 +2397,10 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="E110" s="50" t="s">
+      <c r="E110" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F110" s="50">
+      <c r="F110" s="49">
         <v>3</v>
       </c>
     </row>
@@ -2351,10 +2413,10 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="E112" s="50" t="s">
+      <c r="E112" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="F112" s="50">
+      <c r="F112" s="49">
         <v>5</v>
       </c>
     </row>
@@ -2391,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="I117" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J117" s="44"/>
     </row>
@@ -2404,214 +2466,390 @@
       </c>
     </row>
     <row r="119" spans="2:10">
-      <c r="E119" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="F119" s="48">
+      <c r="E119" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F119" s="50">
         <v>8</v>
       </c>
     </row>
     <row r="120" spans="2:10">
-      <c r="E120" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F120" s="50">
+      <c r="E120" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F120" s="49">
         <v>6</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E121" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="50">
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J121">
         <v>5</v>
       </c>
     </row>
     <row r="122" spans="2:10">
-      <c r="E122" t="s">
-        <v>61</v>
-      </c>
-      <c r="F122">
+      <c r="E122" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F122" s="46">
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="2:10">
+      <c r="D123" t="s">
+        <v>138</v>
+      </c>
       <c r="E123" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F123">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="2:10">
-      <c r="E124" s="46" t="s">
+      <c r="E124" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="F124" s="46">
+      <c r="F124" s="47">
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J124">
         <v>3</v>
       </c>
     </row>
     <row r="125" spans="2:10">
+      <c r="D125" t="s">
+        <v>138</v>
+      </c>
       <c r="E125" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F125">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J125">
         <v>8</v>
       </c>
     </row>
     <row r="126" spans="2:10">
-      <c r="E126" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F126" s="47">
-        <v>2</v>
+      <c r="E126" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F126" s="42">
+        <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J126">
         <v>4</v>
       </c>
     </row>
     <row r="127" spans="2:10">
-      <c r="E127" t="s">
-        <v>131</v>
-      </c>
       <c r="F127">
-        <v>4</v>
+        <f>SUM(F117:F126)</f>
+        <v>46</v>
       </c>
       <c r="I127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J127">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="2:10">
-      <c r="D128" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E128" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="F128" s="49">
-        <v>8</v>
-      </c>
+      <c r="D128" s="26"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="48"/>
       <c r="J128" s="8">
         <f xml:space="preserve"> SUM(J121:J127)</f>
         <v>24</v>
       </c>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E129" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="F129" s="42">
-        <v>3</v>
+      <c r="D129" s="32">
+        <v>43228</v>
+      </c>
+      <c r="E129" t="s">
+        <v>135</v>
+      </c>
+      <c r="F129">
+        <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J129">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="4:10">
+      <c r="E130" t="s">
+        <v>136</v>
+      </c>
       <c r="F130">
-        <f>SUM(F117:F129)</f>
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J130" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="131" spans="4:10">
+      <c r="E131" t="s">
+        <v>137</v>
+      </c>
+      <c r="F131">
+        <v>8</v>
+      </c>
       <c r="I131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J131" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="132" spans="4:10">
+      <c r="E132" t="s">
+        <v>139</v>
+      </c>
+      <c r="F132">
+        <v>4</v>
+      </c>
       <c r="I132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J132">
         <v>3</v>
       </c>
     </row>
     <row r="133" spans="4:10">
+      <c r="E133" t="s">
+        <v>140</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
       <c r="I133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J133">
         <v>4</v>
       </c>
     </row>
     <row r="134" spans="4:10">
+      <c r="E134" t="s">
+        <v>141</v>
+      </c>
+      <c r="F134">
+        <v>8</v>
+      </c>
       <c r="I134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J134">
         <v>4</v>
       </c>
     </row>
     <row r="135" spans="4:10">
+      <c r="E135" t="s">
+        <v>142</v>
+      </c>
+      <c r="F135">
+        <v>6</v>
+      </c>
       <c r="I135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J135">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="4:10">
+      <c r="E136" t="s">
+        <v>143</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
       <c r="J136" s="8">
         <f xml:space="preserve"> SUM(J129:J135)</f>
-        <v>17</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="4:10">
+      <c r="E137" t="s">
+        <v>144</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="4:10">
+      <c r="F138">
+        <f>SUM(F129:F137)</f>
+        <v>46</v>
+      </c>
+      <c r="I138" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="4:10">
+      <c r="I139" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="140" spans="4:10">
+      <c r="I140" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="4:10">
+      <c r="I141" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="142" spans="4:10">
+      <c r="I142" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="4:10">
+      <c r="I143" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144" spans="4:10">
+      <c r="I144" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="145" spans="9:10">
+      <c r="J145" s="8">
+        <f xml:space="preserve"> SUM(J138:J144)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="9:10">
+      <c r="I146" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147" spans="9:10">
+      <c r="I147" t="s">
+        <v>121</v>
+      </c>
+      <c r="J147" s="14"/>
+    </row>
+    <row r="148" spans="9:10">
+      <c r="I148" t="s">
+        <v>122</v>
+      </c>
+      <c r="J148" s="14"/>
+    </row>
+    <row r="149" spans="9:10">
+      <c r="I149" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="150" spans="9:10">
+      <c r="I150" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="151" spans="9:10">
+      <c r="I151" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="9:10">
+      <c r="I152" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" spans="9:10">
+      <c r="J153" s="8">
+        <f xml:space="preserve"> SUM(J146:J152)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J128">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J136">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J145">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2633,7 +2871,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J136">
+  <conditionalFormatting sqref="J153">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="9240" yWindow="1200" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -427,34 +427,34 @@
     <t>Testing of implementation with new test data!!!</t>
   </si>
   <si>
-    <t>Find papers concerning 2D features</t>
-  </si>
-  <si>
-    <t>Read paper FPFH</t>
-  </si>
-  <si>
-    <t>Implement features in 2D</t>
-  </si>
-  <si>
     <t>POSTPONE</t>
   </si>
   <si>
-    <t>Create illustrations for chapter "Improvements"</t>
-  </si>
-  <si>
-    <t>Write introduction + State of the Art "rigid"</t>
-  </si>
-  <si>
-    <t>Write conclusion + Future work</t>
-  </si>
-  <si>
-    <t>Write "related work" (non-rigid registratoin)</t>
-  </si>
-  <si>
-    <t>Read non-rigid + summarize</t>
-  </si>
-  <si>
-    <t>Read rigid + summarize</t>
+    <t>Read + Write FPFH</t>
+  </si>
+  <si>
+    <t>Read + Write Normal Estimation</t>
+  </si>
+  <si>
+    <t>Implement Normal estimation</t>
+  </si>
+  <si>
+    <t>Implement FPFH</t>
+  </si>
+  <si>
+    <t>Write related work (Non-rigid registration)</t>
+  </si>
+  <si>
+    <t>Write "general pose capture"</t>
+  </si>
+  <si>
+    <t>Create results + images LRP</t>
+  </si>
+  <si>
+    <t>Weights + featues for Region growing</t>
+  </si>
+  <si>
+    <t>Create images "Introduction"</t>
   </si>
 </sst>
 </file>
@@ -858,7 +858,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -912,6 +912,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1315,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2514,7 +2515,7 @@
     </row>
     <row r="123" spans="2:10">
       <c r="D123" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E123" t="s">
         <v>131</v>
@@ -2545,7 +2546,7 @@
     </row>
     <row r="125" spans="2:10">
       <c r="D125" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E125" t="s">
         <v>130</v>
@@ -2599,11 +2600,11 @@
       <c r="D129" s="32">
         <v>43228</v>
       </c>
-      <c r="E129" t="s">
-        <v>135</v>
-      </c>
-      <c r="F129">
-        <v>4</v>
+      <c r="E129" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F129" s="51">
+        <v>6</v>
       </c>
       <c r="I129" t="s">
         <v>120</v>
@@ -2614,7 +2615,7 @@
     </row>
     <row r="130" spans="4:10">
       <c r="E130" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F130">
         <v>4</v>
@@ -2628,10 +2629,10 @@
     </row>
     <row r="131" spans="4:10">
       <c r="E131" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F131">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I131" t="s">
         <v>122</v>
@@ -2645,7 +2646,7 @@
         <v>139</v>
       </c>
       <c r="F132">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I132" t="s">
         <v>123</v>
@@ -2687,7 +2688,7 @@
         <v>142</v>
       </c>
       <c r="F135">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I135" t="s">
         <v>126</v>
@@ -2713,13 +2714,13 @@
         <v>144</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="4:10">
       <c r="F138">
         <f>SUM(F129:F137)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I138" t="s">
         <v>120</v>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="1200" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:P153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="146">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>Create images "Introduction"</t>
+  </si>
+  <si>
+    <t>halfed</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="B113" workbookViewId="0">
+      <selection activeCell="K145" sqref="K145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2604,7 +2607,10 @@
         <v>136</v>
       </c>
       <c r="F129" s="51">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="G129" t="s">
+        <v>145</v>
       </c>
       <c r="I129" t="s">
         <v>120</v>
@@ -2614,11 +2620,14 @@
       </c>
     </row>
     <row r="130" spans="4:10">
-      <c r="E130" t="s">
+      <c r="E130" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="F130">
-        <v>4</v>
+      <c r="F130" s="51">
+        <v>2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>145</v>
       </c>
       <c r="I130" t="s">
         <v>121</v>
@@ -2720,36 +2729,54 @@
     <row r="138" spans="4:10">
       <c r="F138">
         <f>SUM(F129:F137)</f>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I138" t="s">
         <v>120</v>
+      </c>
+      <c r="J138" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="4:10">
       <c r="I139" t="s">
         <v>121</v>
       </c>
+      <c r="J139" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="140" spans="4:10">
       <c r="I140" t="s">
         <v>122</v>
       </c>
+      <c r="J140" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="141" spans="4:10">
       <c r="I141" t="s">
         <v>123</v>
       </c>
+      <c r="J141" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="142" spans="4:10">
       <c r="I142" t="s">
         <v>124</v>
       </c>
+      <c r="J142" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="143" spans="4:10">
       <c r="I143" t="s">
         <v>125</v>
       </c>
+      <c r="J143" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="144" spans="4:10">
       <c r="I144" t="s">
@@ -2759,7 +2786,7 @@
     <row r="145" spans="9:10">
       <c r="J145" s="8">
         <f xml:space="preserve"> SUM(J138:J144)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="9:10">

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="146">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:P153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B113" workbookViewId="0">
-      <selection activeCell="K145" sqref="K145"/>
+      <selection activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2637,11 +2637,14 @@
       </c>
     </row>
     <row r="131" spans="4:10">
-      <c r="E131" t="s">
+      <c r="E131" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="F131">
-        <v>6</v>
+      <c r="F131" s="51">
+        <v>3</v>
+      </c>
+      <c r="G131" t="s">
+        <v>145</v>
       </c>
       <c r="I131" t="s">
         <v>122</v>
@@ -2729,7 +2732,7 @@
     <row r="138" spans="4:10">
       <c r="F138">
         <f>SUM(F129:F137)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I138" t="s">
         <v>120</v>
@@ -2781,6 +2784,9 @@
     <row r="144" spans="4:10">
       <c r="I144" t="s">
         <v>126</v>
+      </c>
+      <c r="J144" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="9:10">
@@ -2798,7 +2804,9 @@
       <c r="I147" t="s">
         <v>121</v>
       </c>
-      <c r="J147" s="14"/>
+      <c r="J147" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="148" spans="9:10">
       <c r="I148" t="s">
@@ -2829,7 +2837,7 @@
     <row r="153" spans="9:10">
       <c r="J153" s="8">
         <f xml:space="preserve"> SUM(J146:J152)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="145">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -436,12 +436,6 @@
     <t>Read + Write Normal Estimation</t>
   </si>
   <si>
-    <t>Implement Normal estimation</t>
-  </si>
-  <si>
-    <t>Implement FPFH</t>
-  </si>
-  <si>
     <t>Write related work (Non-rigid registration)</t>
   </si>
   <si>
@@ -454,10 +448,13 @@
     <t>Weights + featues for Region growing</t>
   </si>
   <si>
-    <t>Create images "Introduction"</t>
-  </si>
-  <si>
-    <t>halfed</t>
+    <t>Create images "State of the Art"</t>
+  </si>
+  <si>
+    <t>Implement Normal flipping --&gt; first straight lines</t>
+  </si>
+  <si>
+    <t>Implement FPFH for 2D + histogram comparison</t>
   </si>
 </sst>
 </file>
@@ -1319,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B113" workbookViewId="0">
-      <selection activeCell="K148" sqref="K148"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2603,14 +2600,11 @@
       <c r="D129" s="32">
         <v>43228</v>
       </c>
-      <c r="E129" s="51" t="s">
+      <c r="E129" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="F129" s="51">
-        <v>3</v>
-      </c>
-      <c r="G129" t="s">
-        <v>145</v>
+      <c r="F129" s="50">
+        <v>6</v>
       </c>
       <c r="I129" t="s">
         <v>120</v>
@@ -2620,14 +2614,11 @@
       </c>
     </row>
     <row r="130" spans="4:10">
-      <c r="E130" s="51" t="s">
+      <c r="E130" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="F130" s="51">
-        <v>2</v>
-      </c>
-      <c r="G130" t="s">
-        <v>145</v>
+      <c r="F130" s="50">
+        <v>4</v>
       </c>
       <c r="I130" t="s">
         <v>121</v>
@@ -2638,14 +2629,11 @@
     </row>
     <row r="131" spans="4:10">
       <c r="E131" s="51" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F131" s="51">
         <v>3</v>
       </c>
-      <c r="G131" t="s">
-        <v>145</v>
-      </c>
       <c r="I131" t="s">
         <v>122</v>
       </c>
@@ -2654,11 +2642,11 @@
       </c>
     </row>
     <row r="132" spans="4:10">
-      <c r="E132" t="s">
-        <v>139</v>
-      </c>
-      <c r="F132">
-        <v>8</v>
+      <c r="E132" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F132" s="51">
+        <v>4</v>
       </c>
       <c r="I132" t="s">
         <v>123</v>
@@ -2669,7 +2657,7 @@
     </row>
     <row r="133" spans="4:10">
       <c r="E133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F133">
         <v>8</v>
@@ -2683,7 +2671,7 @@
     </row>
     <row r="134" spans="4:10">
       <c r="E134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F134">
         <v>8</v>
@@ -2697,7 +2685,7 @@
     </row>
     <row r="135" spans="4:10">
       <c r="E135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F135">
         <v>4</v>
@@ -2711,7 +2699,7 @@
     </row>
     <row r="136" spans="4:10">
       <c r="E136" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F136">
         <v>2</v>
@@ -2723,7 +2711,7 @@
     </row>
     <row r="137" spans="4:10">
       <c r="E137" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F137">
         <v>3</v>
@@ -2732,7 +2720,7 @@
     <row r="138" spans="4:10">
       <c r="F138">
         <f>SUM(F129:F137)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I138" t="s">
         <v>120</v>
@@ -2777,28 +2765,31 @@
       <c r="I143" t="s">
         <v>125</v>
       </c>
-      <c r="J143" s="14" t="s">
-        <v>86</v>
+      <c r="J143" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="4:10">
       <c r="I144" t="s">
         <v>126</v>
       </c>
-      <c r="J144" s="14" t="s">
-        <v>86</v>
+      <c r="J144" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="9:10">
       <c r="J145" s="8">
         <f xml:space="preserve"> SUM(J138:J144)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="9:10">
       <c r="I146" t="s">
         <v>120</v>
       </c>
+      <c r="J146" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="147" spans="9:10">
       <c r="I147" t="s">
@@ -2812,17 +2803,25 @@
       <c r="I148" t="s">
         <v>122</v>
       </c>
-      <c r="J148" s="14"/>
+      <c r="J148" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="149" spans="9:10">
       <c r="I149" t="s">
         <v>123</v>
       </c>
+      <c r="J149" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="150" spans="9:10">
       <c r="I150" t="s">
         <v>124</v>
       </c>
+      <c r="J150">
+        <v>3</v>
+      </c>
     </row>
     <row r="151" spans="9:10">
       <c r="I151" t="s">
@@ -2837,7 +2836,7 @@
     <row r="153" spans="9:10">
       <c r="J153" s="8">
         <f xml:space="preserve"> SUM(J146:J152)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="151">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -436,25 +436,43 @@
     <t>Read + Write Normal Estimation</t>
   </si>
   <si>
-    <t>Write related work (Non-rigid registration)</t>
-  </si>
-  <si>
-    <t>Write "general pose capture"</t>
-  </si>
-  <si>
-    <t>Create results + images LRP</t>
-  </si>
-  <si>
-    <t>Weights + featues for Region growing</t>
-  </si>
-  <si>
-    <t>Create images "State of the Art"</t>
-  </si>
-  <si>
     <t>Implement Normal flipping --&gt; first straight lines</t>
   </si>
   <si>
-    <t>Implement FPFH for 2D + histogram comparison</t>
+    <t>Histogram analysis + comparison</t>
+  </si>
+  <si>
+    <t>Plotting of histograms</t>
+  </si>
+  <si>
+    <t>Reciprocal point correspondences</t>
+  </si>
+  <si>
+    <t>Add result images</t>
+  </si>
+  <si>
+    <t>Implementation details + code snipets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Articulated rigid parts? Same algorithm/rotation </t>
+  </si>
+  <si>
+    <t>Images "State of the Art"</t>
+  </si>
+  <si>
+    <t>Write down related work "Non rigid registration"</t>
+  </si>
+  <si>
+    <t>Write "general pose capture" + related paper</t>
+  </si>
+  <si>
+    <t>Write introduction</t>
+  </si>
+  <si>
+    <t>Write conclusion</t>
+  </si>
+  <si>
+    <t>Structure for first version</t>
   </si>
 </sst>
 </file>
@@ -785,8 +803,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -914,7 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="79">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -950,6 +976,10 @@
     <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -985,6 +1015,10 @@
     <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1316,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2629,10 +2663,10 @@
     </row>
     <row r="131" spans="4:10">
       <c r="E131" s="51" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F131" s="51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I131" t="s">
         <v>122</v>
@@ -2643,10 +2677,10 @@
     </row>
     <row r="132" spans="4:10">
       <c r="E132" s="51" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F132" s="51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I132" t="s">
         <v>123</v>
@@ -2657,10 +2691,10 @@
     </row>
     <row r="133" spans="4:10">
       <c r="E133" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F133">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I133" t="s">
         <v>124</v>
@@ -2671,10 +2705,10 @@
     </row>
     <row r="134" spans="4:10">
       <c r="E134" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F134">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I134" t="s">
         <v>125</v>
@@ -2685,10 +2719,10 @@
     </row>
     <row r="135" spans="4:10">
       <c r="E135" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I135" t="s">
         <v>126</v>
@@ -2699,10 +2733,10 @@
     </row>
     <row r="136" spans="4:10">
       <c r="E136" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J136" s="8">
         <f xml:space="preserve"> SUM(J129:J135)</f>
@@ -2711,33 +2745,42 @@
     </row>
     <row r="137" spans="4:10">
       <c r="E137" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F137">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="4:10">
       <c r="F138">
         <f>SUM(F129:F137)</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I138" t="s">
         <v>120</v>
       </c>
-      <c r="J138" s="14" t="s">
-        <v>86</v>
+      <c r="J138" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="4:10">
       <c r="I139" t="s">
         <v>121</v>
       </c>
-      <c r="J139" s="14" t="s">
-        <v>86</v>
+      <c r="J139" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="4:10">
+      <c r="D140" s="32">
+        <v>43243</v>
+      </c>
+      <c r="E140" t="s">
+        <v>146</v>
+      </c>
+      <c r="F140">
+        <v>8</v>
+      </c>
       <c r="I140" t="s">
         <v>122</v>
       </c>
@@ -2746,6 +2789,12 @@
       </c>
     </row>
     <row r="141" spans="4:10">
+      <c r="E141" t="s">
+        <v>147</v>
+      </c>
+      <c r="F141">
+        <v>8</v>
+      </c>
       <c r="I141" t="s">
         <v>123</v>
       </c>
@@ -2754,6 +2803,12 @@
       </c>
     </row>
     <row r="142" spans="4:10">
+      <c r="E142" t="s">
+        <v>145</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
+      </c>
       <c r="I142" t="s">
         <v>124</v>
       </c>
@@ -2762,6 +2817,12 @@
       </c>
     </row>
     <row r="143" spans="4:10">
+      <c r="E143" t="s">
+        <v>148</v>
+      </c>
+      <c r="F143">
+        <v>4</v>
+      </c>
       <c r="I143" t="s">
         <v>125</v>
       </c>
@@ -2770,6 +2831,12 @@
       </c>
     </row>
     <row r="144" spans="4:10">
+      <c r="E144" t="s">
+        <v>149</v>
+      </c>
+      <c r="F144">
+        <v>6</v>
+      </c>
       <c r="I144" t="s">
         <v>126</v>
       </c>
@@ -2777,13 +2844,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="9:10">
+    <row r="145" spans="4:10">
+      <c r="F145">
+        <f>SUM(F140:F144)</f>
+        <v>30</v>
+      </c>
       <c r="J145" s="8">
         <f xml:space="preserve"> SUM(J138:J144)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="9:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="4:10">
       <c r="I146" t="s">
         <v>120</v>
       </c>
@@ -2791,7 +2862,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="9:10">
+    <row r="147" spans="4:10">
+      <c r="D147" s="32">
+        <v>43252</v>
+      </c>
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
       <c r="I147" t="s">
         <v>121</v>
       </c>
@@ -2799,7 +2879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="9:10">
+    <row r="148" spans="4:10">
       <c r="I148" t="s">
         <v>122</v>
       </c>
@@ -2807,36 +2887,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="9:10">
+    <row r="149" spans="4:10">
       <c r="I149" t="s">
         <v>123</v>
       </c>
       <c r="J149" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="9:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="4:10">
       <c r="I150" t="s">
         <v>124</v>
       </c>
       <c r="J150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="9:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="4:10">
       <c r="I151" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="9:10">
+    <row r="152" spans="4:10">
       <c r="I152" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="153" spans="9:10">
+    <row r="153" spans="4:10">
       <c r="J153" s="8">
         <f xml:space="preserve"> SUM(J146:J152)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:P153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2704,10 +2704,10 @@
       </c>
     </row>
     <row r="134" spans="4:10">
-      <c r="E134" t="s">
+      <c r="E134" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="41">
         <v>2</v>
       </c>
       <c r="I134" t="s">
@@ -2907,16 +2907,22 @@
       <c r="I151" t="s">
         <v>125</v>
       </c>
+      <c r="J151">
+        <v>3</v>
+      </c>
     </row>
     <row r="152" spans="4:10">
       <c r="I152" t="s">
         <v>126</v>
       </c>
+      <c r="J152">
+        <v>3</v>
+      </c>
     </row>
     <row r="153" spans="4:10">
       <c r="J153" s="8">
         <f xml:space="preserve"> SUM(J146:J152)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -473,6 +473,18 @@
   </si>
   <si>
     <t>Structure for first version</t>
+  </si>
+  <si>
+    <t>Fix error joint weights</t>
+  </si>
+  <si>
+    <t>Fix RANSAC closest point!</t>
+  </si>
+  <si>
+    <t>Fix normal flipping</t>
+  </si>
+  <si>
+    <t>Include head to pose</t>
   </si>
 </sst>
 </file>
@@ -803,8 +815,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -940,7 +954,7 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="81">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -980,6 +994,7 @@
     <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1019,6 +1034,7 @@
     <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1348,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:P162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2744,10 +2760,10 @@
       </c>
     </row>
     <row r="137" spans="4:10">
-      <c r="E137" t="s">
+      <c r="E137" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="51">
         <v>4</v>
       </c>
     </row>
@@ -2888,6 +2904,12 @@
       </c>
     </row>
     <row r="149" spans="4:10">
+      <c r="D149" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E149" s="48" t="s">
+        <v>151</v>
+      </c>
       <c r="I149" t="s">
         <v>123</v>
       </c>
@@ -2896,6 +2918,9 @@
       </c>
     </row>
     <row r="150" spans="4:10">
+      <c r="E150" s="48" t="s">
+        <v>152</v>
+      </c>
       <c r="I150" t="s">
         <v>124</v>
       </c>
@@ -2904,6 +2929,9 @@
       </c>
     </row>
     <row r="151" spans="4:10">
+      <c r="E151" s="48" t="s">
+        <v>153</v>
+      </c>
       <c r="I151" t="s">
         <v>125</v>
       </c>
@@ -2912,6 +2940,9 @@
       </c>
     </row>
     <row r="152" spans="4:10">
+      <c r="E152" s="48" t="s">
+        <v>154</v>
+      </c>
       <c r="I152" t="s">
         <v>126</v>
       </c>
@@ -2925,8 +2956,77 @@
         <v>20</v>
       </c>
     </row>
+    <row r="155" spans="4:10">
+      <c r="I155" t="s">
+        <v>120</v>
+      </c>
+      <c r="J155" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="4:10">
+      <c r="I156" t="s">
+        <v>121</v>
+      </c>
+      <c r="J156" s="14"/>
+    </row>
+    <row r="157" spans="4:10">
+      <c r="I157" t="s">
+        <v>122</v>
+      </c>
+      <c r="J157" s="14"/>
+    </row>
+    <row r="158" spans="4:10">
+      <c r="I158" t="s">
+        <v>123</v>
+      </c>
+      <c r="J158" s="14"/>
+    </row>
+    <row r="159" spans="4:10">
+      <c r="I159" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="4:10">
+      <c r="I160" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="9:10">
+      <c r="I161" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="9:10">
+      <c r="J162" s="8">
+        <f xml:space="preserve"> SUM(J155:J161)</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="J128">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J136">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2948,7 +3048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J136">
+  <conditionalFormatting sqref="J145">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2970,7 +3070,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J145">
+  <conditionalFormatting sqref="J153">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2992,7 +3092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J153">
+  <conditionalFormatting sqref="J162">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="155">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:P162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+      <selection activeCell="M159" sqref="M159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2968,19 +2968,25 @@
       <c r="I156" t="s">
         <v>121</v>
       </c>
-      <c r="J156" s="14"/>
+      <c r="J156" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="157" spans="4:10">
       <c r="I157" t="s">
         <v>122</v>
       </c>
-      <c r="J157" s="14"/>
+      <c r="J157" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="158" spans="4:10">
       <c r="I158" t="s">
         <v>123</v>
       </c>
-      <c r="J158" s="14"/>
+      <c r="J158" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="159" spans="4:10">
       <c r="I159" t="s">

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="155">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -475,16 +475,16 @@
     <t>Structure for first version</t>
   </si>
   <si>
-    <t>Fix error joint weights</t>
-  </si>
-  <si>
-    <t>Fix RANSAC closest point!</t>
-  </si>
-  <si>
     <t>Fix normal flipping</t>
   </si>
   <si>
     <t>Include head to pose</t>
+  </si>
+  <si>
+    <t>Fix RANSAC --&gt; same number of points!</t>
+  </si>
+  <si>
+    <t>Check histogram formular (FPFH)</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,6 +734,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34F90F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF0C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -815,7 +827,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -897,8 +909,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -953,8 +969,10 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="85">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -995,6 +1013,8 @@
     <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1035,6 +1055,8 @@
     <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1364,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P162"/>
+  <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="M159" sqref="M159"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2692,10 +2714,10 @@
       </c>
     </row>
     <row r="132" spans="4:10">
-      <c r="E132" s="51" t="s">
+      <c r="E132" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="F132" s="51">
+      <c r="F132" s="52">
         <v>6</v>
       </c>
       <c r="I132" t="s">
@@ -2706,10 +2728,13 @@
       </c>
     </row>
     <row r="133" spans="4:10">
-      <c r="E133" t="s">
+      <c r="D133" t="s">
+        <v>135</v>
+      </c>
+      <c r="E133" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="53">
         <v>2</v>
       </c>
       <c r="I133" t="s">
@@ -2734,6 +2759,9 @@
       </c>
     </row>
     <row r="135" spans="4:10">
+      <c r="D135" t="s">
+        <v>135</v>
+      </c>
       <c r="E135" t="s">
         <v>142</v>
       </c>
@@ -2748,6 +2776,9 @@
       </c>
     </row>
     <row r="136" spans="4:10">
+      <c r="D136" t="s">
+        <v>135</v>
+      </c>
       <c r="E136" t="s">
         <v>143</v>
       </c>
@@ -2760,10 +2791,10 @@
       </c>
     </row>
     <row r="137" spans="4:10">
-      <c r="E137" s="51" t="s">
+      <c r="E137" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="F137" s="51">
+      <c r="F137" s="52">
         <v>4</v>
       </c>
     </row>
@@ -2848,141 +2879,144 @@
     </row>
     <row r="144" spans="4:10">
       <c r="E144" t="s">
+        <v>142</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
+      </c>
+      <c r="J144" s="14"/>
+    </row>
+    <row r="145" spans="4:10">
+      <c r="E145" t="s">
+        <v>143</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
+      </c>
+      <c r="J145" s="14"/>
+    </row>
+    <row r="146" spans="4:10">
+      <c r="E146" t="s">
         <v>149</v>
       </c>
-      <c r="F144">
+      <c r="F146">
         <v>6</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I146" t="s">
         <v>126</v>
-      </c>
-      <c r="J144" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="4:10">
-      <c r="F145">
-        <f>SUM(F140:F144)</f>
-        <v>30</v>
-      </c>
-      <c r="J145" s="8">
-        <f xml:space="preserve"> SUM(J138:J144)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="4:10">
-      <c r="I146" t="s">
-        <v>120</v>
       </c>
       <c r="J146" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="4:10">
-      <c r="D147" s="32">
-        <v>43252</v>
-      </c>
-      <c r="E147" t="s">
-        <v>150</v>
-      </c>
       <c r="F147">
-        <v>2</v>
-      </c>
-      <c r="I147" t="s">
-        <v>121</v>
-      </c>
-      <c r="J147" s="14">
-        <v>3</v>
+        <f>SUM(F140:F146)</f>
+        <v>38</v>
+      </c>
+      <c r="J147" s="8">
+        <f xml:space="preserve"> SUM(J138:J146)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="4:10">
       <c r="I148" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J148" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="149" spans="4:10">
-      <c r="D149" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E149" s="48" t="s">
-        <v>151</v>
+      <c r="D149" s="32">
+        <v>43252</v>
+      </c>
+      <c r="E149" t="s">
+        <v>150</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J149" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="150" spans="4:10">
-      <c r="E150" s="48" t="s">
+      <c r="I150" t="s">
+        <v>122</v>
+      </c>
+      <c r="J150" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="4:10">
+      <c r="E151" s="48"/>
+      <c r="I151" t="s">
+        <v>123</v>
+      </c>
+      <c r="J151" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="4:10">
+      <c r="D152" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E152" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="I152" t="s">
+        <v>124</v>
+      </c>
+      <c r="J152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="4:10">
+      <c r="E153" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="I153" t="s">
+        <v>125</v>
+      </c>
+      <c r="J153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="4:10">
+      <c r="E154" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="I150" t="s">
-        <v>124</v>
-      </c>
-      <c r="J150">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="4:10">
-      <c r="E151" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="I151" t="s">
-        <v>125</v>
-      </c>
-      <c r="J151">
+      <c r="I154" t="s">
+        <v>126</v>
+      </c>
+      <c r="J154">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="4:10">
-      <c r="E152" s="48" t="s">
+    <row r="155" spans="4:10">
+      <c r="E155" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="I152" t="s">
-        <v>126</v>
-      </c>
-      <c r="J152">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="4:10">
-      <c r="J153" s="8">
-        <f xml:space="preserve"> SUM(J146:J152)</f>
+      <c r="J155" s="8">
+        <f xml:space="preserve"> SUM(J148:J154)</f>
         <v>20</v>
-      </c>
-    </row>
-    <row r="155" spans="4:10">
-      <c r="I155" t="s">
-        <v>120</v>
-      </c>
-      <c r="J155" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="4:10">
-      <c r="I156" t="s">
-        <v>121</v>
-      </c>
-      <c r="J156" s="14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="157" spans="4:10">
       <c r="I157" t="s">
-        <v>122</v>
-      </c>
-      <c r="J157" s="14" t="s">
-        <v>86</v>
+        <v>120</v>
+      </c>
+      <c r="J157" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="4:10">
       <c r="I158" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J158" s="14" t="s">
         <v>86</v>
@@ -2990,23 +3024,45 @@
     </row>
     <row r="159" spans="4:10">
       <c r="I159" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="J159" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="4:10">
       <c r="I160" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="J160" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="161" spans="9:10">
       <c r="I161" t="s">
+        <v>124</v>
+      </c>
+      <c r="J161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="9:10">
+      <c r="I162" t="s">
+        <v>125</v>
+      </c>
+      <c r="J162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="9:10">
+      <c r="I163" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="9:10">
-      <c r="J162" s="8">
-        <f xml:space="preserve"> SUM(J155:J161)</f>
-        <v>4</v>
+    <row r="164" spans="9:10">
+      <c r="J164" s="8">
+        <f xml:space="preserve"> SUM(J157:J163)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3054,7 +3110,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J145">
+  <conditionalFormatting sqref="J147">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3076,7 +3132,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J153">
+  <conditionalFormatting sqref="J155">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3098,7 +3154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J162">
+  <conditionalFormatting sqref="J164">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="157">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -472,9 +472,6 @@
     <t>Write conclusion</t>
   </si>
   <si>
-    <t>Structure for first version</t>
-  </si>
-  <si>
     <t>Fix normal flipping</t>
   </si>
   <si>
@@ -485,6 +482,15 @@
   </si>
   <si>
     <t>Check histogram formular (FPFH)</t>
+  </si>
+  <si>
+    <t>Add Results + images</t>
+  </si>
+  <si>
+    <t>Project chapter completed + correction</t>
+  </si>
+  <si>
+    <t>First thesis version + correction</t>
   </si>
 </sst>
 </file>
@@ -497,6 +503,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -827,8 +834,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -972,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="87">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1015,6 +1024,7 @@
     <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1057,6 +1067,7 @@
     <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1386,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P164"/>
+  <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2879,7 +2890,7 @@
     </row>
     <row r="144" spans="4:10">
       <c r="E144" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F144">
         <v>4</v>
@@ -2887,10 +2898,10 @@
       <c r="J144" s="14"/>
     </row>
     <row r="145" spans="4:10">
-      <c r="E145" t="s">
+      <c r="E145" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="51">
         <v>4</v>
       </c>
       <c r="J145" s="14"/>
@@ -2932,10 +2943,10 @@
         <v>43252</v>
       </c>
       <c r="E149" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149" t="s">
         <v>121</v>
@@ -2945,6 +2956,15 @@
       </c>
     </row>
     <row r="150" spans="4:10">
+      <c r="D150" s="32">
+        <v>43255</v>
+      </c>
+      <c r="E150" t="s">
+        <v>156</v>
+      </c>
+      <c r="F150">
+        <v>5</v>
+      </c>
       <c r="I150" t="s">
         <v>122</v>
       </c>
@@ -2966,7 +2986,7 @@
         <v>89</v>
       </c>
       <c r="E152" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I152" t="s">
         <v>124</v>
@@ -2977,7 +2997,7 @@
     </row>
     <row r="153" spans="4:10">
       <c r="E153" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I153" t="s">
         <v>125</v>
@@ -2988,7 +3008,7 @@
     </row>
     <row r="154" spans="4:10">
       <c r="E154" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I154" t="s">
         <v>126</v>
@@ -2999,7 +3019,7 @@
     </row>
     <row r="155" spans="4:10">
       <c r="E155" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J155" s="8">
         <f xml:space="preserve"> SUM(J148:J154)</f>
@@ -3058,15 +3078,87 @@
       <c r="I163" t="s">
         <v>126</v>
       </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="9:10">
       <c r="J164" s="8">
         <f xml:space="preserve"> SUM(J157:J163)</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="9:10">
+      <c r="I166" t="s">
+        <v>120</v>
+      </c>
+      <c r="J166" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="9:10">
+      <c r="I167" t="s">
+        <v>121</v>
+      </c>
+      <c r="J167" s="14"/>
+    </row>
+    <row r="168" spans="9:10">
+      <c r="I168" t="s">
+        <v>122</v>
+      </c>
+      <c r="J168" s="14"/>
+    </row>
+    <row r="169" spans="9:10">
+      <c r="I169" t="s">
+        <v>123</v>
+      </c>
+      <c r="J169" s="14"/>
+    </row>
+    <row r="170" spans="9:10">
+      <c r="I170" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="171" spans="9:10">
+      <c r="I171" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="172" spans="9:10">
+      <c r="I172" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="173" spans="9:10">
+      <c r="J173" s="8">
+        <f xml:space="preserve"> SUM(J166:J172)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J128">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J136">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3088,7 +3180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J136">
+  <conditionalFormatting sqref="J147">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3110,7 +3202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J147">
+  <conditionalFormatting sqref="J155">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3132,7 +3224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J155">
+  <conditionalFormatting sqref="J164">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3154,7 +3246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J164">
+  <conditionalFormatting sqref="J173">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="158">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -478,9 +478,6 @@
     <t>Include head to pose</t>
   </si>
   <si>
-    <t>Fix RANSAC --&gt; same number of points!</t>
-  </si>
-  <si>
     <t>Check histogram formular (FPFH)</t>
   </si>
   <si>
@@ -491,6 +488,12 @@
   </si>
   <si>
     <t>First thesis version + correction</t>
+  </si>
+  <si>
+    <t>Create new dataset --&gt; more points, different shapes?</t>
+  </si>
+  <si>
+    <t>Write State of the Art</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -834,8 +836,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -981,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="89">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1025,6 +1029,7 @@
     <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1068,6 +1073,7 @@
     <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1397,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P173"/>
+  <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2862,156 +2868,152 @@
     </row>
     <row r="142" spans="4:10">
       <c r="E142" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F142">
-        <v>4</v>
-      </c>
-      <c r="I142" t="s">
-        <v>124</v>
-      </c>
-      <c r="J142" s="14" t="s">
-        <v>86</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J142" s="14"/>
     </row>
     <row r="143" spans="4:10">
       <c r="E143" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F143">
         <v>4</v>
       </c>
       <c r="I143" t="s">
-        <v>125</v>
-      </c>
-      <c r="J143" s="14">
-        <v>4</v>
+        <v>124</v>
+      </c>
+      <c r="J143" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="144" spans="4:10">
       <c r="E144" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F144">
         <v>4</v>
       </c>
-      <c r="J144" s="14"/>
+      <c r="I144" t="s">
+        <v>125</v>
+      </c>
+      <c r="J144" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="145" spans="4:10">
-      <c r="E145" s="51" t="s">
+      <c r="E145" t="s">
+        <v>153</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
+      </c>
+      <c r="J145" s="14"/>
+    </row>
+    <row r="146" spans="4:10">
+      <c r="E146" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="F145" s="51">
+      <c r="F146" s="51">
         <v>4</v>
       </c>
-      <c r="J145" s="14"/>
-    </row>
-    <row r="146" spans="4:10">
-      <c r="E146" t="s">
+      <c r="J146" s="14"/>
+    </row>
+    <row r="147" spans="4:10">
+      <c r="E147" t="s">
         <v>149</v>
       </c>
-      <c r="F146">
+      <c r="F147">
         <v>6</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I147" t="s">
         <v>126</v>
       </c>
-      <c r="J146" s="14">
+      <c r="J147" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="4:10">
-      <c r="F147">
-        <f>SUM(F140:F146)</f>
-        <v>38</v>
-      </c>
-      <c r="J147" s="8">
-        <f xml:space="preserve"> SUM(J138:J146)</f>
+    <row r="148" spans="4:10">
+      <c r="F148">
+        <f>SUM(F140:F147)</f>
+        <v>46</v>
+      </c>
+      <c r="J148" s="8">
+        <f xml:space="preserve"> SUM(J138:J147)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="4:10">
-      <c r="I148" t="s">
+    <row r="149" spans="4:10">
+      <c r="I149" t="s">
         <v>120</v>
       </c>
-      <c r="J148" s="14">
+      <c r="J149" s="14">
         <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="4:10">
-      <c r="D149" s="32">
-        <v>43252</v>
-      </c>
-      <c r="E149" t="s">
-        <v>155</v>
-      </c>
-      <c r="F149">
-        <v>3</v>
-      </c>
-      <c r="I149" t="s">
-        <v>121</v>
-      </c>
-      <c r="J149" s="14">
-        <v>3</v>
       </c>
     </row>
     <row r="150" spans="4:10">
       <c r="D150" s="32">
+        <v>43252</v>
+      </c>
+      <c r="E150" t="s">
+        <v>154</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="I150" t="s">
+        <v>121</v>
+      </c>
+      <c r="J150" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="4:10">
+      <c r="D151" s="32">
         <v>43255</v>
       </c>
-      <c r="E150" t="s">
-        <v>156</v>
-      </c>
-      <c r="F150">
+      <c r="E151" t="s">
+        <v>155</v>
+      </c>
+      <c r="F151">
         <v>5</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I151" t="s">
         <v>122</v>
       </c>
-      <c r="J150" s="14">
+      <c r="J151" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="4:10">
-      <c r="E151" s="48"/>
-      <c r="I151" t="s">
+    <row r="152" spans="4:10">
+      <c r="E152" s="48"/>
+      <c r="I152" t="s">
         <v>123</v>
       </c>
-      <c r="J151" s="14">
+      <c r="J152" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="4:10">
-      <c r="D152" s="26" t="s">
+    <row r="153" spans="4:10">
+      <c r="D153" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E152" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="I152" t="s">
+      <c r="E153" s="48"/>
+      <c r="I153" t="s">
         <v>124</v>
       </c>
-      <c r="J152">
+      <c r="J153">
         <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="4:10">
-      <c r="E153" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="I153" t="s">
-        <v>125</v>
-      </c>
-      <c r="J153">
-        <v>3</v>
       </c>
     </row>
     <row r="154" spans="4:10">
       <c r="E154" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I154" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J154">
         <v>3</v>
@@ -3019,32 +3021,40 @@
     </row>
     <row r="155" spans="4:10">
       <c r="E155" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="J155" s="8">
-        <f xml:space="preserve"> SUM(J148:J154)</f>
+        <v>151</v>
+      </c>
+      <c r="I155" t="s">
+        <v>126</v>
+      </c>
+      <c r="J155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="4:10">
+      <c r="E156" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="J156" s="8">
+        <f xml:space="preserve"> SUM(J149:J155)</f>
         <v>20</v>
       </c>
     </row>
     <row r="157" spans="4:10">
-      <c r="I157" t="s">
-        <v>120</v>
-      </c>
-      <c r="J157" s="14">
-        <v>4</v>
+      <c r="E157" s="48" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="4:10">
       <c r="I158" t="s">
-        <v>121</v>
-      </c>
-      <c r="J158" s="14" t="s">
-        <v>86</v>
+        <v>120</v>
+      </c>
+      <c r="J158" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="4:10">
       <c r="I159" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J159" s="14" t="s">
         <v>86</v>
@@ -3052,7 +3062,7 @@
     </row>
     <row r="160" spans="4:10">
       <c r="I160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J160" s="14" t="s">
         <v>86</v>
@@ -3060,83 +3070,164 @@
     </row>
     <row r="161" spans="9:10">
       <c r="I161" t="s">
-        <v>124</v>
-      </c>
-      <c r="J161">
-        <v>3</v>
+        <v>123</v>
+      </c>
+      <c r="J161" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="9:10">
       <c r="I162" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J162">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="9:10">
       <c r="I163" t="s">
+        <v>125</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="9:10">
+      <c r="I164" t="s">
         <v>126</v>
       </c>
-      <c r="J163">
+      <c r="J164">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="9:10">
-      <c r="J164" s="8">
-        <f xml:space="preserve"> SUM(J157:J163)</f>
+    <row r="165" spans="9:10">
+      <c r="J165" s="8">
+        <f xml:space="preserve"> SUM(J158:J164)</f>
         <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="9:10">
-      <c r="I166" t="s">
-        <v>120</v>
-      </c>
-      <c r="J166" s="14">
-        <v>2</v>
       </c>
     </row>
     <row r="167" spans="9:10">
       <c r="I167" t="s">
-        <v>121</v>
-      </c>
-      <c r="J167" s="14"/>
+        <v>120</v>
+      </c>
+      <c r="J167" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="168" spans="9:10">
       <c r="I168" t="s">
-        <v>122</v>
-      </c>
-      <c r="J168" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="J168" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="169" spans="9:10">
       <c r="I169" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J169" s="14"/>
     </row>
     <row r="170" spans="9:10">
       <c r="I170" t="s">
-        <v>124</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J170" s="14"/>
     </row>
     <row r="171" spans="9:10">
       <c r="I171" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="172" spans="9:10">
       <c r="I172" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="173" spans="9:10">
+      <c r="I173" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="173" spans="9:10">
-      <c r="J173" s="8">
-        <f xml:space="preserve"> SUM(J166:J172)</f>
+    <row r="174" spans="9:10">
+      <c r="J174" s="8">
+        <f xml:space="preserve"> SUM(J167:J173)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="9:10">
+      <c r="I177" t="s">
+        <v>120</v>
+      </c>
+      <c r="J177" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="9:10">
+      <c r="I178" t="s">
+        <v>121</v>
+      </c>
+      <c r="J178" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="179" spans="9:10">
+      <c r="I179" t="s">
+        <v>122</v>
+      </c>
+      <c r="J179" s="14"/>
+    </row>
+    <row r="180" spans="9:10">
+      <c r="I180" t="s">
+        <v>123</v>
+      </c>
+      <c r="J180" s="14"/>
+    </row>
+    <row r="181" spans="9:10">
+      <c r="I181" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="182" spans="9:10">
+      <c r="I182" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="183" spans="9:10">
+      <c r="I183" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="184" spans="9:10">
+      <c r="J184" s="8">
+        <f xml:space="preserve"> SUM(J177:J183)</f>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J128">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J136">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3158,7 +3249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J136">
+  <conditionalFormatting sqref="J148">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3180,7 +3271,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J147">
+  <conditionalFormatting sqref="J156">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3202,7 +3293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J155">
+  <conditionalFormatting sqref="J165">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3224,7 +3315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J164">
+  <conditionalFormatting sqref="J174">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3246,7 +3337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J173">
+  <conditionalFormatting sqref="J184">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -460,9 +460,6 @@
     <t>Images "State of the Art"</t>
   </si>
   <si>
-    <t>Write down related work "Non rigid registration"</t>
-  </si>
-  <si>
     <t>Write "general pose capture" + related paper</t>
   </si>
   <si>
@@ -494,6 +491,9 @@
   </si>
   <si>
     <t>Write State of the Art</t>
+  </si>
+  <si>
+    <t>Summarize related work "Non rigid registration"</t>
   </si>
 </sst>
 </file>
@@ -1405,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2840,7 +2840,7 @@
         <v>43243</v>
       </c>
       <c r="E140" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F140">
         <v>8</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="141" spans="4:10">
       <c r="E141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F141">
         <v>8</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="142" spans="4:10">
       <c r="E142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F142">
         <v>8</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="144" spans="4:10">
       <c r="E144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F144">
         <v>4</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="145" spans="4:10">
       <c r="E145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F145">
         <v>4</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="147" spans="4:10">
       <c r="E147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F147">
         <v>6</v>
@@ -2958,7 +2958,7 @@
         <v>43252</v>
       </c>
       <c r="E150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F150">
         <v>3</v>
@@ -2975,7 +2975,7 @@
         <v>43255</v>
       </c>
       <c r="E151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F151">
         <v>5</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="154" spans="4:10">
       <c r="E154" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I154" t="s">
         <v>125</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="155" spans="4:10">
       <c r="E155" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I155" t="s">
         <v>126</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="156" spans="4:10">
       <c r="E156" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J156" s="8">
         <f xml:space="preserve"> SUM(J149:J155)</f>
@@ -3040,8 +3040,8 @@
       </c>
     </row>
     <row r="157" spans="4:10">
-      <c r="E157" s="48" t="s">
-        <v>156</v>
+      <c r="E157" s="26" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="4:10">

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="17040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -927,7 +927,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -984,6 +984,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="89">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1405,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2839,10 +2840,10 @@
       <c r="D140" s="32">
         <v>43243</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="54">
         <v>8</v>
       </c>
       <c r="I140" t="s">
@@ -3175,13 +3176,17 @@
       <c r="I179" t="s">
         <v>122</v>
       </c>
-      <c r="J179" s="14"/>
+      <c r="J179" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="180" spans="9:10">
       <c r="I180" t="s">
         <v>123</v>
       </c>
-      <c r="J180" s="14"/>
+      <c r="J180" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="181" spans="9:10">
       <c r="I181" t="s">
@@ -3201,7 +3206,7 @@
     <row r="184" spans="9:10">
       <c r="J184" s="8">
         <f xml:space="preserve"> SUM(J177:J183)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="162">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -481,9 +481,6 @@
     <t>Add Results + images</t>
   </si>
   <si>
-    <t>Project chapter completed + correction</t>
-  </si>
-  <si>
     <t>First thesis version + correction</t>
   </si>
   <si>
@@ -494,6 +491,21 @@
   </si>
   <si>
     <t>Summarize related work "Non rigid registration"</t>
+  </si>
+  <si>
+    <t>Write linear approach + testing!</t>
+  </si>
+  <si>
+    <t>Write feature approach</t>
+  </si>
+  <si>
+    <t>Find keyplayer</t>
+  </si>
+  <si>
+    <t>Finish project</t>
+  </si>
+  <si>
+    <t>Clean up eclipse code</t>
   </si>
 </sst>
 </file>
@@ -836,8 +848,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -986,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="95">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1031,6 +1049,9 @@
     <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1075,6 +1096,9 @@
     <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1406,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2841,7 +2865,7 @@
         <v>43243</v>
       </c>
       <c r="E140" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F140" s="54">
         <v>8</v>
@@ -2854,10 +2878,10 @@
       </c>
     </row>
     <row r="141" spans="4:10">
-      <c r="E141" t="s">
+      <c r="E141" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="45">
         <v>8</v>
       </c>
       <c r="I141" t="s">
@@ -2869,7 +2893,7 @@
     </row>
     <row r="142" spans="4:10">
       <c r="E142" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F142">
         <v>8</v>
@@ -2937,9 +2961,11 @@
       </c>
     </row>
     <row r="148" spans="4:10">
+      <c r="E148" t="s">
+        <v>157</v>
+      </c>
       <c r="F148">
-        <f>SUM(F140:F147)</f>
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="J148" s="8">
         <f xml:space="preserve"> SUM(J138:J147)</f>
@@ -2947,6 +2973,12 @@
       </c>
     </row>
     <row r="149" spans="4:10">
+      <c r="E149" t="s">
+        <v>158</v>
+      </c>
+      <c r="F149">
+        <v>4</v>
+      </c>
       <c r="I149" t="s">
         <v>120</v>
       </c>
@@ -2955,14 +2987,10 @@
       </c>
     </row>
     <row r="150" spans="4:10">
-      <c r="D150" s="32">
-        <v>43252</v>
-      </c>
-      <c r="E150" t="s">
-        <v>153</v>
-      </c>
+      <c r="D150" s="32"/>
       <c r="F150">
-        <v>3</v>
+        <f>SUM(F142:F145)+SUM(F147:F149)</f>
+        <v>34</v>
       </c>
       <c r="I150" t="s">
         <v>121</v>
@@ -2972,15 +3000,6 @@
       </c>
     </row>
     <row r="151" spans="4:10">
-      <c r="D151" s="32">
-        <v>43255</v>
-      </c>
-      <c r="E151" t="s">
-        <v>154</v>
-      </c>
-      <c r="F151">
-        <v>5</v>
-      </c>
       <c r="I151" t="s">
         <v>122</v>
       </c>
@@ -2989,7 +3008,15 @@
       </c>
     </row>
     <row r="152" spans="4:10">
-      <c r="E152" s="48"/>
+      <c r="D152" s="32">
+        <v>43255</v>
+      </c>
+      <c r="E152" t="s">
+        <v>153</v>
+      </c>
+      <c r="F152">
+        <v>5</v>
+      </c>
       <c r="I152" t="s">
         <v>123</v>
       </c>
@@ -2998,10 +3025,15 @@
       </c>
     </row>
     <row r="153" spans="4:10">
-      <c r="D153" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E153" s="48"/>
+      <c r="D153" s="32">
+        <v>43259</v>
+      </c>
+      <c r="E153" t="s">
+        <v>160</v>
+      </c>
+      <c r="F153">
+        <v>8</v>
+      </c>
       <c r="I153" t="s">
         <v>124</v>
       </c>
@@ -3010,9 +3042,10 @@
       </c>
     </row>
     <row r="154" spans="4:10">
-      <c r="E154" s="48" t="s">
-        <v>149</v>
-      </c>
+      <c r="D154" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E154" s="48"/>
       <c r="I154" t="s">
         <v>125</v>
       </c>
@@ -3022,7 +3055,7 @@
     </row>
     <row r="155" spans="4:10">
       <c r="E155" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I155" t="s">
         <v>126</v>
@@ -3033,7 +3066,7 @@
     </row>
     <row r="156" spans="4:10">
       <c r="E156" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J156" s="8">
         <f xml:space="preserve"> SUM(J149:J155)</f>
@@ -3041,11 +3074,14 @@
       </c>
     </row>
     <row r="157" spans="4:10">
-      <c r="E157" s="26" t="s">
-        <v>155</v>
+      <c r="E157" s="48" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="158" spans="4:10">
+      <c r="E158" s="26" t="s">
+        <v>154</v>
+      </c>
       <c r="I158" t="s">
         <v>120</v>
       </c>
@@ -3054,6 +3090,9 @@
       </c>
     </row>
     <row r="159" spans="4:10">
+      <c r="E159" s="48" t="s">
+        <v>159</v>
+      </c>
       <c r="I159" t="s">
         <v>121</v>
       </c>
@@ -3062,6 +3101,9 @@
       </c>
     </row>
     <row r="160" spans="4:10">
+      <c r="E160" s="48" t="s">
+        <v>161</v>
+      </c>
       <c r="I160" t="s">
         <v>122</v>
       </c>
@@ -3127,18 +3169,25 @@
       <c r="I169" t="s">
         <v>122</v>
       </c>
-      <c r="J169" s="14"/>
+      <c r="J169" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="170" spans="9:10">
       <c r="I170" t="s">
         <v>123</v>
       </c>
-      <c r="J170" s="14"/>
+      <c r="J170" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="171" spans="9:10">
       <c r="I171" t="s">
         <v>124</v>
       </c>
+      <c r="J171">
+        <v>8</v>
+      </c>
     </row>
     <row r="172" spans="9:10">
       <c r="I172" t="s">
@@ -3153,40 +3202,30 @@
     <row r="174" spans="9:10">
       <c r="J174" s="8">
         <f xml:space="preserve"> SUM(J167:J173)</f>
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="9:10">
       <c r="I177" t="s">
         <v>120</v>
       </c>
-      <c r="J177" s="14">
-        <v>2</v>
-      </c>
+      <c r="J177" s="14"/>
     </row>
     <row r="178" spans="9:10">
       <c r="I178" t="s">
         <v>121</v>
       </c>
-      <c r="J178" s="14" t="s">
-        <v>86</v>
-      </c>
+      <c r="J178" s="14"/>
     </row>
     <row r="179" spans="9:10">
       <c r="I179" t="s">
         <v>122</v>
       </c>
-      <c r="J179" s="14">
-        <v>4</v>
-      </c>
     </row>
     <row r="180" spans="9:10">
       <c r="I180" t="s">
         <v>123</v>
       </c>
-      <c r="J180" s="14">
-        <v>4</v>
-      </c>
     </row>
     <row r="181" spans="9:10">
       <c r="I181" t="s">
@@ -3206,7 +3245,7 @@
     <row r="184" spans="9:10">
       <c r="J184" s="8">
         <f xml:space="preserve"> SUM(J177:J183)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="17040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="169">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -475,9 +475,6 @@
     <t>Include head to pose</t>
   </si>
   <si>
-    <t>Check histogram formular (FPFH)</t>
-  </si>
-  <si>
     <t>Add Results + images</t>
   </si>
   <si>
@@ -506,6 +503,30 @@
   </si>
   <si>
     <t>Clean up eclipse code</t>
+  </si>
+  <si>
+    <t>Check histogram formula (FPFH)</t>
+  </si>
+  <si>
+    <t>SOS - Plan</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>Sa</t>
+  </si>
+  <si>
+    <t>Clean up code</t>
+  </si>
+  <si>
+    <t>Write &amp; Read RESULTS</t>
+  </si>
+  <si>
+    <t>Write &amp;  Read the rest</t>
   </si>
 </sst>
 </file>
@@ -1430,16 +1451,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23">
@@ -2865,7 +2886,7 @@
         <v>43243</v>
       </c>
       <c r="E140" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F140" s="54">
         <v>8</v>
@@ -2892,19 +2913,19 @@
       </c>
     </row>
     <row r="142" spans="4:10">
-      <c r="E142" t="s">
-        <v>155</v>
-      </c>
-      <c r="F142">
+      <c r="E142" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="F142" s="51">
         <v>8</v>
       </c>
       <c r="J142" s="14"/>
     </row>
     <row r="143" spans="4:10">
-      <c r="E143" t="s">
+      <c r="E143" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="51">
         <v>4</v>
       </c>
       <c r="I143" t="s">
@@ -2930,7 +2951,7 @@
     </row>
     <row r="145" spans="4:10">
       <c r="E145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F145">
         <v>4</v>
@@ -2962,7 +2983,7 @@
     </row>
     <row r="148" spans="4:10">
       <c r="E148" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F148">
         <v>4</v>
@@ -2974,7 +2995,7 @@
     </row>
     <row r="149" spans="4:10">
       <c r="E149" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F149">
         <v>4</v>
@@ -3012,7 +3033,7 @@
         <v>43255</v>
       </c>
       <c r="E152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F152">
         <v>5</v>
@@ -3029,7 +3050,7 @@
         <v>43259</v>
       </c>
       <c r="E153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F153">
         <v>8</v>
@@ -3075,12 +3096,12 @@
     </row>
     <row r="157" spans="4:10">
       <c r="E157" s="48" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="4:10">
       <c r="E158" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I158" t="s">
         <v>120</v>
@@ -3091,7 +3112,7 @@
     </row>
     <row r="159" spans="4:10">
       <c r="E159" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I159" t="s">
         <v>121</v>
@@ -3102,7 +3123,7 @@
     </row>
     <row r="160" spans="4:10">
       <c r="E160" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I160" t="s">
         <v>122</v>
@@ -3111,7 +3132,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="161" spans="9:10">
+    <row r="161" spans="5:10">
       <c r="I161" t="s">
         <v>123</v>
       </c>
@@ -3119,7 +3140,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="162" spans="9:10">
+    <row r="162" spans="5:10">
       <c r="I162" t="s">
         <v>124</v>
       </c>
@@ -3127,7 +3148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="9:10">
+    <row r="163" spans="5:10">
       <c r="I163" t="s">
         <v>125</v>
       </c>
@@ -3135,7 +3156,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="9:10">
+    <row r="164" spans="5:10" ht="23">
+      <c r="E164" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="I164" t="s">
         <v>126</v>
       </c>
@@ -3143,13 +3167,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="9:10">
+    <row r="165" spans="5:10">
       <c r="J165" s="8">
         <f xml:space="preserve"> SUM(J158:J164)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="9:10">
+    <row r="166" spans="5:10">
+      <c r="E166" t="s">
+        <v>163</v>
+      </c>
+      <c r="F166" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="5:10">
+      <c r="E167" t="s">
+        <v>164</v>
+      </c>
+      <c r="F167" t="s">
+        <v>168</v>
+      </c>
       <c r="I167" t="s">
         <v>120</v>
       </c>
@@ -3157,7 +3195,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="9:10">
+    <row r="168" spans="5:10">
+      <c r="E168" t="s">
+        <v>165</v>
+      </c>
+      <c r="F168" t="s">
+        <v>166</v>
+      </c>
       <c r="I168" t="s">
         <v>121</v>
       </c>
@@ -3165,7 +3209,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="169" spans="9:10">
+    <row r="169" spans="5:10">
       <c r="I169" t="s">
         <v>122</v>
       </c>
@@ -3173,7 +3217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="9:10">
+    <row r="170" spans="5:10">
       <c r="I170" t="s">
         <v>123</v>
       </c>
@@ -3181,7 +3225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="9:10">
+    <row r="171" spans="5:10">
       <c r="I171" t="s">
         <v>124</v>
       </c>
@@ -3189,20 +3233,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="9:10">
+    <row r="172" spans="5:10">
       <c r="I172" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="173" spans="9:10">
+      <c r="J172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="5:10">
       <c r="I173" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="174" spans="9:10">
+    <row r="174" spans="5:10">
       <c r="J174" s="8">
         <f xml:space="preserve"> SUM(J167:J173)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="9:10">

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="171">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -520,13 +520,19 @@
     <t>Sa</t>
   </si>
   <si>
-    <t>Clean up code</t>
-  </si>
-  <si>
-    <t>Write &amp; Read RESULTS</t>
-  </si>
-  <si>
-    <t>Write &amp;  Read the rest</t>
+    <t>Write Linear Approach</t>
+  </si>
+  <si>
+    <t>Write Feature Approach + Conclusion</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>Create new test data</t>
+  </si>
+  <si>
+    <t>Clean up code + start scientific talk</t>
   </si>
 </sst>
 </file>
@@ -1451,16 +1457,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="5" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23">
@@ -3178,7 +3183,7 @@
         <v>163</v>
       </c>
       <c r="F166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="5:10">
@@ -3186,7 +3191,7 @@
         <v>164</v>
       </c>
       <c r="F167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I167" t="s">
         <v>120</v>
@@ -3200,7 +3205,7 @@
         <v>165</v>
       </c>
       <c r="F168" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I168" t="s">
         <v>121</v>
@@ -3210,6 +3215,12 @@
       </c>
     </row>
     <row r="169" spans="5:10">
+      <c r="E169" t="s">
+        <v>168</v>
+      </c>
+      <c r="F169" t="s">
+        <v>170</v>
+      </c>
       <c r="I169" t="s">
         <v>122</v>
       </c>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="171">
   <si>
     <t>Zeitplan Weihnachtsferien</t>
   </si>
@@ -469,12 +469,6 @@
     <t>Write conclusion</t>
   </si>
   <si>
-    <t>Fix normal flipping</t>
-  </si>
-  <si>
-    <t>Include head to pose</t>
-  </si>
-  <si>
     <t>Add Results + images</t>
   </si>
   <si>
@@ -508,31 +502,37 @@
     <t>Check histogram formula (FPFH)</t>
   </si>
   <si>
-    <t>SOS - Plan</t>
-  </si>
-  <si>
-    <t>Do</t>
-  </si>
-  <si>
-    <t>Fr</t>
-  </si>
-  <si>
-    <t>Sa</t>
-  </si>
-  <si>
-    <t>Write Linear Approach</t>
-  </si>
-  <si>
-    <t>Write Feature Approach + Conclusion</t>
-  </si>
-  <si>
-    <t>So</t>
-  </si>
-  <si>
-    <t>Create new test data</t>
-  </si>
-  <si>
-    <t>Clean up code + start scientific talk</t>
+    <t>Final plan</t>
+  </si>
+  <si>
+    <t>Create abstract for scientific talk</t>
+  </si>
+  <si>
+    <t>Create overview of scientific talk</t>
+  </si>
+  <si>
+    <t>Prepare scientific talk</t>
+  </si>
+  <si>
+    <t>Practice scientific talk</t>
+  </si>
+  <si>
+    <t>Create results for linear approach</t>
+  </si>
+  <si>
+    <t>Create results for feature approach + add parameters</t>
+  </si>
+  <si>
+    <t>Handle TODOs</t>
+  </si>
+  <si>
+    <t>Clean up eclipse code for both approaches</t>
+  </si>
+  <si>
+    <t>Conduct corrections on thesis</t>
+  </si>
+  <si>
+    <t>UNTIL Thursday</t>
   </si>
 </sst>
 </file>
@@ -875,8 +875,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1031,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="97">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1079,6 +1081,7 @@
     <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1126,6 +1129,7 @@
     <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1457,15 +1461,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.5" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23">
@@ -2891,7 +2896,7 @@
         <v>43243</v>
       </c>
       <c r="E140" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F140" s="54">
         <v>8</v>
@@ -2918,19 +2923,19 @@
       </c>
     </row>
     <row r="142" spans="4:10">
-      <c r="E142" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="F142" s="51">
+      <c r="E142" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F142" s="45">
         <v>8</v>
       </c>
       <c r="J142" s="14"/>
     </row>
     <row r="143" spans="4:10">
-      <c r="E143" s="51" t="s">
+      <c r="E143" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="F143" s="51">
+      <c r="F143" s="45">
         <v>4</v>
       </c>
       <c r="I143" t="s">
@@ -2941,10 +2946,10 @@
       </c>
     </row>
     <row r="144" spans="4:10">
-      <c r="E144" t="s">
+      <c r="E144" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="45">
         <v>4</v>
       </c>
       <c r="I144" t="s">
@@ -2955,28 +2960,28 @@
       </c>
     </row>
     <row r="145" spans="4:10">
-      <c r="E145" t="s">
-        <v>151</v>
-      </c>
-      <c r="F145">
+      <c r="E145" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="F145" s="45">
         <v>4</v>
       </c>
       <c r="J145" s="14"/>
     </row>
     <row r="146" spans="4:10">
-      <c r="E146" s="51" t="s">
+      <c r="E146" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="F146" s="51">
+      <c r="F146" s="45">
         <v>4</v>
       </c>
       <c r="J146" s="14"/>
     </row>
     <row r="147" spans="4:10">
-      <c r="E147" t="s">
+      <c r="E147" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="45">
         <v>6</v>
       </c>
       <c r="I147" t="s">
@@ -2987,10 +2992,10 @@
       </c>
     </row>
     <row r="148" spans="4:10">
-      <c r="E148" t="s">
-        <v>156</v>
-      </c>
-      <c r="F148">
+      <c r="E148" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="F148" s="45">
         <v>4</v>
       </c>
       <c r="J148" s="8">
@@ -2999,10 +3004,10 @@
       </c>
     </row>
     <row r="149" spans="4:10">
-      <c r="E149" t="s">
-        <v>157</v>
-      </c>
-      <c r="F149">
+      <c r="E149" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="F149" s="45">
         <v>4</v>
       </c>
       <c r="I149" t="s">
@@ -3038,7 +3043,7 @@
         <v>43255</v>
       </c>
       <c r="E152" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F152">
         <v>5</v>
@@ -3055,7 +3060,7 @@
         <v>43259</v>
       </c>
       <c r="E153" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F153">
         <v>8</v>
@@ -3080,9 +3085,7 @@
       </c>
     </row>
     <row r="155" spans="4:10">
-      <c r="E155" s="48" t="s">
-        <v>149</v>
-      </c>
+      <c r="E155" s="48"/>
       <c r="I155" t="s">
         <v>126</v>
       </c>
@@ -3091,9 +3094,7 @@
       </c>
     </row>
     <row r="156" spans="4:10">
-      <c r="E156" s="48" t="s">
-        <v>150</v>
-      </c>
+      <c r="E156" s="48"/>
       <c r="J156" s="8">
         <f xml:space="preserve"> SUM(J149:J155)</f>
         <v>20</v>
@@ -3101,12 +3102,12 @@
     </row>
     <row r="157" spans="4:10">
       <c r="E157" s="48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="4:10">
       <c r="E158" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I158" t="s">
         <v>120</v>
@@ -3117,7 +3118,7 @@
     </row>
     <row r="159" spans="4:10">
       <c r="E159" s="48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I159" t="s">
         <v>121</v>
@@ -3128,7 +3129,7 @@
     </row>
     <row r="160" spans="4:10">
       <c r="E160" s="48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I160" t="s">
         <v>122</v>
@@ -3137,7 +3138,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="161" spans="5:10">
+    <row r="161" spans="4:10">
       <c r="I161" t="s">
         <v>123</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="162" spans="5:10">
+    <row r="162" spans="4:10">
       <c r="I162" t="s">
         <v>124</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="5:10">
+    <row r="163" spans="4:10">
       <c r="I163" t="s">
         <v>125</v>
       </c>
@@ -3161,9 +3162,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="5:10" ht="23">
+    <row r="164" spans="4:10" ht="23">
       <c r="E164" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I164" t="s">
         <v>126</v>
@@ -3172,26 +3173,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="5:10">
+    <row r="165" spans="4:10">
+      <c r="D165" s="32">
+        <v>43259</v>
+      </c>
+      <c r="E165" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F165" s="45">
+        <v>2</v>
+      </c>
       <c r="J165" s="8">
         <f xml:space="preserve"> SUM(J158:J164)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="5:10">
-      <c r="E166" t="s">
+    <row r="166" spans="4:10">
+      <c r="E166" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="F166" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="4:10">
+      <c r="E167" t="s">
         <v>163</v>
       </c>
-      <c r="F166" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="167" spans="5:10">
-      <c r="E167" t="s">
-        <v>164</v>
-      </c>
-      <c r="F167" t="s">
-        <v>167</v>
+      <c r="F167">
+        <v>6</v>
       </c>
       <c r="I167" t="s">
         <v>120</v>
@@ -3200,12 +3210,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="5:10">
+    <row r="168" spans="4:10">
       <c r="E168" t="s">
-        <v>165</v>
-      </c>
-      <c r="F168" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
       </c>
       <c r="I168" t="s">
         <v>121</v>
@@ -3214,12 +3224,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="169" spans="5:10">
+    <row r="169" spans="4:10">
       <c r="E169" t="s">
-        <v>168</v>
-      </c>
-      <c r="F169" t="s">
-        <v>170</v>
+        <v>165</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
       </c>
       <c r="I169" t="s">
         <v>122</v>
@@ -3228,7 +3238,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="5:10">
+    <row r="170" spans="4:10">
+      <c r="E170" t="s">
+        <v>166</v>
+      </c>
+      <c r="F170">
+        <v>6</v>
+      </c>
       <c r="I170" t="s">
         <v>123</v>
       </c>
@@ -3236,7 +3252,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="5:10">
+    <row r="171" spans="4:10">
+      <c r="E171" t="s">
+        <v>167</v>
+      </c>
+      <c r="F171">
+        <v>4</v>
+      </c>
       <c r="I171" t="s">
         <v>124</v>
       </c>
@@ -3244,7 +3266,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="5:10">
+    <row r="172" spans="4:10">
+      <c r="E172" t="s">
+        <v>168</v>
+      </c>
+      <c r="F172">
+        <v>4</v>
+      </c>
       <c r="I172" t="s">
         <v>125</v>
       </c>
@@ -3252,43 +3280,74 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="5:10">
+    <row r="173" spans="4:10">
+      <c r="E173" t="s">
+        <v>169</v>
+      </c>
+      <c r="F173">
+        <v>4</v>
+      </c>
       <c r="I173" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="174" spans="5:10">
+      <c r="J173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="4:10">
+      <c r="F174" s="8">
+        <f>SUM(F167:F173)</f>
+        <v>34</v>
+      </c>
       <c r="J174" s="8">
         <f xml:space="preserve"> SUM(J167:J173)</f>
-        <v>24</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="4:10">
+      <c r="E176" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="9:10">
       <c r="I177" t="s">
         <v>120</v>
       </c>
-      <c r="J177" s="14"/>
+      <c r="J177" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="178" spans="9:10">
       <c r="I178" t="s">
         <v>121</v>
       </c>
-      <c r="J178" s="14"/>
+      <c r="J178" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="179" spans="9:10">
       <c r="I179" t="s">
         <v>122</v>
       </c>
+      <c r="J179">
+        <v>6</v>
+      </c>
     </row>
     <row r="180" spans="9:10">
       <c r="I180" t="s">
         <v>123</v>
       </c>
+      <c r="J180">
+        <v>8</v>
+      </c>
     </row>
     <row r="181" spans="9:10">
       <c r="I181" t="s">
         <v>124</v>
       </c>
+      <c r="J181">
+        <v>4</v>
+      </c>
     </row>
     <row r="182" spans="9:10">
       <c r="I182" t="s">
@@ -3303,7 +3362,7 @@
     <row r="184" spans="9:10">
       <c r="J184" s="8">
         <f xml:space="preserve"> SUM(J177:J183)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
